--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -53389,7 +53389,9 @@
       <c r="Q945" t="n">
         <v>0</v>
       </c>
-      <c r="R945" t="inlineStr"/>
+      <c r="R945" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -53725,7 +53725,9 @@
       <c r="Q951" t="n">
         <v>0</v>
       </c>
-      <c r="R951" t="inlineStr"/>
+      <c r="R951" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="952">
       <c r="A952" s="2" t="n">
@@ -53779,7 +53781,9 @@
       <c r="Q952" t="n">
         <v>0</v>
       </c>
-      <c r="R952" t="inlineStr"/>
+      <c r="R952" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="953">
       <c r="A953" s="2" t="n">
@@ -53833,7 +53837,9 @@
       <c r="Q953" t="n">
         <v>0</v>
       </c>
-      <c r="R953" t="inlineStr"/>
+      <c r="R953" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="954">
       <c r="A954" s="2" t="n">
@@ -53887,7 +53893,9 @@
       <c r="Q954" t="n">
         <v>0</v>
       </c>
-      <c r="R954" t="inlineStr"/>
+      <c r="R954" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="955">
       <c r="A955" s="2" t="n">
@@ -53941,7 +53949,9 @@
       <c r="Q955" t="n">
         <v>0</v>
       </c>
-      <c r="R955" t="inlineStr"/>
+      <c r="R955" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R955"/>
+  <dimension ref="A1:R956"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53953,6 +53953,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="956">
+      <c r="A956" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B956" t="n">
+        <v>1175</v>
+      </c>
+      <c r="C956" t="n">
+        <v>1179.400024414062</v>
+      </c>
+      <c r="D956" t="n">
+        <v>1145.650024414062</v>
+      </c>
+      <c r="E956" t="n">
+        <v>1174.300048828125</v>
+      </c>
+      <c r="F956" t="n">
+        <v>1174.300048828125</v>
+      </c>
+      <c r="G956" t="n">
+        <v>43201</v>
+      </c>
+      <c r="H956" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I956" t="n">
+        <v>6</v>
+      </c>
+      <c r="J956" t="n">
+        <v>18</v>
+      </c>
+      <c r="K956" t="n">
+        <v>0</v>
+      </c>
+      <c r="L956" t="n">
+        <v>0</v>
+      </c>
+      <c r="M956" t="n">
+        <v>0</v>
+      </c>
+      <c r="N956" t="n">
+        <v>25</v>
+      </c>
+      <c r="O956" t="n">
+        <v>0</v>
+      </c>
+      <c r="P956" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q956" t="n">
+        <v>0</v>
+      </c>
+      <c r="R956" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R956"/>
+  <dimension ref="A1:R957"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53493,7 +53493,7 @@
         <v>23</v>
       </c>
       <c r="O947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P947" t="n">
         <v>0</v>
@@ -54005,7 +54005,63 @@
       <c r="Q956" t="n">
         <v>0</v>
       </c>
-      <c r="R956" t="inlineStr"/>
+      <c r="R956" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B957" t="n">
+        <v>1180</v>
+      </c>
+      <c r="C957" t="n">
+        <v>1180</v>
+      </c>
+      <c r="D957" t="n">
+        <v>1150.050048828125</v>
+      </c>
+      <c r="E957" t="n">
+        <v>1163.199951171875</v>
+      </c>
+      <c r="F957" t="n">
+        <v>1163.199951171875</v>
+      </c>
+      <c r="G957" t="n">
+        <v>44822</v>
+      </c>
+      <c r="H957" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I957" t="n">
+        <v>6</v>
+      </c>
+      <c r="J957" t="n">
+        <v>19</v>
+      </c>
+      <c r="K957" t="n">
+        <v>0</v>
+      </c>
+      <c r="L957" t="n">
+        <v>0</v>
+      </c>
+      <c r="M957" t="n">
+        <v>0</v>
+      </c>
+      <c r="N957" t="n">
+        <v>25</v>
+      </c>
+      <c r="O957" t="n">
+        <v>0</v>
+      </c>
+      <c r="P957" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q957" t="n">
+        <v>0</v>
+      </c>
+      <c r="R957" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R957"/>
+  <dimension ref="A1:R964"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54061,7 +54061,387 @@
       <c r="Q957" t="n">
         <v>0</v>
       </c>
-      <c r="R957" t="inlineStr"/>
+      <c r="R957" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B958" t="n">
+        <v>1165.25</v>
+      </c>
+      <c r="C958" t="n">
+        <v>1180</v>
+      </c>
+      <c r="D958" t="n">
+        <v>1150.150024414062</v>
+      </c>
+      <c r="E958" t="n">
+        <v>1167.699951171875</v>
+      </c>
+      <c r="F958" t="n">
+        <v>1159.639526367188</v>
+      </c>
+      <c r="G958" t="n">
+        <v>30535</v>
+      </c>
+      <c r="H958" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I958" t="n">
+        <v>6</v>
+      </c>
+      <c r="J958" t="n">
+        <v>20</v>
+      </c>
+      <c r="K958" t="n">
+        <v>0</v>
+      </c>
+      <c r="L958" t="n">
+        <v>0</v>
+      </c>
+      <c r="M958" t="n">
+        <v>0</v>
+      </c>
+      <c r="N958" t="n">
+        <v>25</v>
+      </c>
+      <c r="O958" t="n">
+        <v>0</v>
+      </c>
+      <c r="P958" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q958" t="n">
+        <v>0</v>
+      </c>
+      <c r="R958" t="inlineStr"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B959" t="n">
+        <v>1184</v>
+      </c>
+      <c r="C959" t="n">
+        <v>1241.5</v>
+      </c>
+      <c r="D959" t="n">
+        <v>1175</v>
+      </c>
+      <c r="E959" t="n">
+        <v>1199.25</v>
+      </c>
+      <c r="F959" t="n">
+        <v>1190.971801757812</v>
+      </c>
+      <c r="G959" t="n">
+        <v>120752</v>
+      </c>
+      <c r="H959" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I959" t="n">
+        <v>6</v>
+      </c>
+      <c r="J959" t="n">
+        <v>21</v>
+      </c>
+      <c r="K959" t="n">
+        <v>0</v>
+      </c>
+      <c r="L959" t="n">
+        <v>0</v>
+      </c>
+      <c r="M959" t="n">
+        <v>0</v>
+      </c>
+      <c r="N959" t="n">
+        <v>25</v>
+      </c>
+      <c r="O959" t="n">
+        <v>0</v>
+      </c>
+      <c r="P959" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q959" t="n">
+        <v>0</v>
+      </c>
+      <c r="R959" t="inlineStr"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B960" t="n">
+        <v>1204</v>
+      </c>
+      <c r="C960" t="n">
+        <v>1209.599975585938</v>
+      </c>
+      <c r="D960" t="n">
+        <v>1173.300048828125</v>
+      </c>
+      <c r="E960" t="n">
+        <v>1180.550048828125</v>
+      </c>
+      <c r="F960" t="n">
+        <v>1172.40087890625</v>
+      </c>
+      <c r="G960" t="n">
+        <v>27298</v>
+      </c>
+      <c r="H960" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I960" t="n">
+        <v>6</v>
+      </c>
+      <c r="J960" t="n">
+        <v>24</v>
+      </c>
+      <c r="K960" t="n">
+        <v>0</v>
+      </c>
+      <c r="L960" t="n">
+        <v>0</v>
+      </c>
+      <c r="M960" t="n">
+        <v>0</v>
+      </c>
+      <c r="N960" t="n">
+        <v>26</v>
+      </c>
+      <c r="O960" t="n">
+        <v>0</v>
+      </c>
+      <c r="P960" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q960" t="n">
+        <v>0</v>
+      </c>
+      <c r="R960" t="inlineStr"/>
+    </row>
+    <row r="961">
+      <c r="A961" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B961" t="n">
+        <v>1190</v>
+      </c>
+      <c r="C961" t="n">
+        <v>1191.25</v>
+      </c>
+      <c r="D961" t="n">
+        <v>1168.599975585938</v>
+      </c>
+      <c r="E961" t="n">
+        <v>1174.650024414062</v>
+      </c>
+      <c r="F961" t="n">
+        <v>1166.541625976562</v>
+      </c>
+      <c r="G961" t="n">
+        <v>19916</v>
+      </c>
+      <c r="H961" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I961" t="n">
+        <v>6</v>
+      </c>
+      <c r="J961" t="n">
+        <v>25</v>
+      </c>
+      <c r="K961" t="n">
+        <v>0</v>
+      </c>
+      <c r="L961" t="n">
+        <v>0</v>
+      </c>
+      <c r="M961" t="n">
+        <v>0</v>
+      </c>
+      <c r="N961" t="n">
+        <v>26</v>
+      </c>
+      <c r="O961" t="n">
+        <v>0</v>
+      </c>
+      <c r="P961" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q961" t="n">
+        <v>0</v>
+      </c>
+      <c r="R961" t="inlineStr"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B962" t="n">
+        <v>1184.25</v>
+      </c>
+      <c r="C962" t="n">
+        <v>1184.25</v>
+      </c>
+      <c r="D962" t="n">
+        <v>1141.550048828125</v>
+      </c>
+      <c r="E962" t="n">
+        <v>1145.400024414062</v>
+      </c>
+      <c r="F962" t="n">
+        <v>1137.493530273438</v>
+      </c>
+      <c r="G962" t="n">
+        <v>25656</v>
+      </c>
+      <c r="H962" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I962" t="n">
+        <v>6</v>
+      </c>
+      <c r="J962" t="n">
+        <v>26</v>
+      </c>
+      <c r="K962" t="n">
+        <v>0</v>
+      </c>
+      <c r="L962" t="n">
+        <v>0</v>
+      </c>
+      <c r="M962" t="n">
+        <v>0</v>
+      </c>
+      <c r="N962" t="n">
+        <v>26</v>
+      </c>
+      <c r="O962" t="n">
+        <v>0</v>
+      </c>
+      <c r="P962" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q962" t="n">
+        <v>0</v>
+      </c>
+      <c r="R962" t="inlineStr"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B963" t="n">
+        <v>1145.400024414062</v>
+      </c>
+      <c r="C963" t="n">
+        <v>1163.5</v>
+      </c>
+      <c r="D963" t="n">
+        <v>1129.900024414062</v>
+      </c>
+      <c r="E963" t="n">
+        <v>1158.949951171875</v>
+      </c>
+      <c r="F963" t="n">
+        <v>1150.949951171875</v>
+      </c>
+      <c r="G963" t="n">
+        <v>31565</v>
+      </c>
+      <c r="H963" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I963" t="n">
+        <v>6</v>
+      </c>
+      <c r="J963" t="n">
+        <v>27</v>
+      </c>
+      <c r="K963" t="n">
+        <v>0</v>
+      </c>
+      <c r="L963" t="n">
+        <v>0</v>
+      </c>
+      <c r="M963" t="n">
+        <v>0</v>
+      </c>
+      <c r="N963" t="n">
+        <v>26</v>
+      </c>
+      <c r="O963" t="n">
+        <v>0</v>
+      </c>
+      <c r="P963" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q963" t="n">
+        <v>0</v>
+      </c>
+      <c r="R963" t="inlineStr"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B964" t="n">
+        <v>1160</v>
+      </c>
+      <c r="C964" t="n">
+        <v>1160</v>
+      </c>
+      <c r="D964" t="n">
+        <v>1132.150024414062</v>
+      </c>
+      <c r="E964" t="n">
+        <v>1140.199951171875</v>
+      </c>
+      <c r="F964" t="n">
+        <v>1140.199951171875</v>
+      </c>
+      <c r="G964" t="n">
+        <v>15156</v>
+      </c>
+      <c r="H964" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I964" t="n">
+        <v>6</v>
+      </c>
+      <c r="J964" t="n">
+        <v>28</v>
+      </c>
+      <c r="K964" t="n">
+        <v>0</v>
+      </c>
+      <c r="L964" t="n">
+        <v>0</v>
+      </c>
+      <c r="M964" t="n">
+        <v>0</v>
+      </c>
+      <c r="N964" t="n">
+        <v>26</v>
+      </c>
+      <c r="O964" t="n">
+        <v>0</v>
+      </c>
+      <c r="P964" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q964" t="n">
+        <v>0</v>
+      </c>
+      <c r="R964" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -54117,7 +54117,9 @@
       <c r="Q958" t="n">
         <v>0</v>
       </c>
-      <c r="R958" t="inlineStr"/>
+      <c r="R958" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="959">
       <c r="A959" s="2" t="n">
@@ -54171,7 +54173,9 @@
       <c r="Q959" t="n">
         <v>0</v>
       </c>
-      <c r="R959" t="inlineStr"/>
+      <c r="R959" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="960">
       <c r="A960" s="2" t="n">
@@ -54225,7 +54229,9 @@
       <c r="Q960" t="n">
         <v>0</v>
       </c>
-      <c r="R960" t="inlineStr"/>
+      <c r="R960" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="961">
       <c r="A961" s="2" t="n">
@@ -54279,7 +54285,9 @@
       <c r="Q961" t="n">
         <v>0</v>
       </c>
-      <c r="R961" t="inlineStr"/>
+      <c r="R961" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="962">
       <c r="A962" s="2" t="n">
@@ -54333,7 +54341,9 @@
       <c r="Q962" t="n">
         <v>0</v>
       </c>
-      <c r="R962" t="inlineStr"/>
+      <c r="R962" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="963">
       <c r="A963" s="2" t="n">
@@ -54387,7 +54397,9 @@
       <c r="Q963" t="n">
         <v>0</v>
       </c>
-      <c r="R963" t="inlineStr"/>
+      <c r="R963" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="964">
       <c r="A964" s="2" t="n">
@@ -54441,7 +54453,9 @@
       <c r="Q964" t="n">
         <v>0</v>
       </c>
-      <c r="R964" t="inlineStr"/>
+      <c r="R964" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R964"/>
+  <dimension ref="A1:R969"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54165,7 +54165,7 @@
         <v>25</v>
       </c>
       <c r="O959" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P959" t="n">
         <v>0</v>
@@ -54456,6 +54456,276 @@
       <c r="R964" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B965" t="n">
+        <v>1140</v>
+      </c>
+      <c r="C965" t="n">
+        <v>1154.400024414062</v>
+      </c>
+      <c r="D965" t="n">
+        <v>1131.050048828125</v>
+      </c>
+      <c r="E965" t="n">
+        <v>1139.449951171875</v>
+      </c>
+      <c r="F965" t="n">
+        <v>1139.449951171875</v>
+      </c>
+      <c r="G965" t="n">
+        <v>20022</v>
+      </c>
+      <c r="H965" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I965" t="n">
+        <v>7</v>
+      </c>
+      <c r="J965" t="n">
+        <v>1</v>
+      </c>
+      <c r="K965" t="n">
+        <v>0</v>
+      </c>
+      <c r="L965" t="n">
+        <v>0</v>
+      </c>
+      <c r="M965" t="n">
+        <v>0</v>
+      </c>
+      <c r="N965" t="n">
+        <v>27</v>
+      </c>
+      <c r="O965" t="n">
+        <v>0</v>
+      </c>
+      <c r="P965" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q965" t="n">
+        <v>0</v>
+      </c>
+      <c r="R965" t="inlineStr"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B966" t="n">
+        <v>1156.550048828125</v>
+      </c>
+      <c r="C966" t="n">
+        <v>1156.550048828125</v>
+      </c>
+      <c r="D966" t="n">
+        <v>1129</v>
+      </c>
+      <c r="E966" t="n">
+        <v>1136.800048828125</v>
+      </c>
+      <c r="F966" t="n">
+        <v>1136.800048828125</v>
+      </c>
+      <c r="G966" t="n">
+        <v>20424</v>
+      </c>
+      <c r="H966" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I966" t="n">
+        <v>7</v>
+      </c>
+      <c r="J966" t="n">
+        <v>2</v>
+      </c>
+      <c r="K966" t="n">
+        <v>0</v>
+      </c>
+      <c r="L966" t="n">
+        <v>0</v>
+      </c>
+      <c r="M966" t="n">
+        <v>0</v>
+      </c>
+      <c r="N966" t="n">
+        <v>27</v>
+      </c>
+      <c r="O966" t="n">
+        <v>0</v>
+      </c>
+      <c r="P966" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q966" t="n">
+        <v>0</v>
+      </c>
+      <c r="R966" t="inlineStr"/>
+    </row>
+    <row r="967">
+      <c r="A967" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B967" t="n">
+        <v>1136.699951171875</v>
+      </c>
+      <c r="C967" t="n">
+        <v>1146.150024414062</v>
+      </c>
+      <c r="D967" t="n">
+        <v>1132</v>
+      </c>
+      <c r="E967" t="n">
+        <v>1138.949951171875</v>
+      </c>
+      <c r="F967" t="n">
+        <v>1138.949951171875</v>
+      </c>
+      <c r="G967" t="n">
+        <v>15717</v>
+      </c>
+      <c r="H967" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I967" t="n">
+        <v>7</v>
+      </c>
+      <c r="J967" t="n">
+        <v>3</v>
+      </c>
+      <c r="K967" t="n">
+        <v>0</v>
+      </c>
+      <c r="L967" t="n">
+        <v>0</v>
+      </c>
+      <c r="M967" t="n">
+        <v>0</v>
+      </c>
+      <c r="N967" t="n">
+        <v>27</v>
+      </c>
+      <c r="O967" t="n">
+        <v>0</v>
+      </c>
+      <c r="P967" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q967" t="n">
+        <v>0</v>
+      </c>
+      <c r="R967" t="inlineStr"/>
+    </row>
+    <row r="968">
+      <c r="A968" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B968" t="n">
+        <v>1139</v>
+      </c>
+      <c r="C968" t="n">
+        <v>1148.550048828125</v>
+      </c>
+      <c r="D968" t="n">
+        <v>1128.050048828125</v>
+      </c>
+      <c r="E968" t="n">
+        <v>1132.050048828125</v>
+      </c>
+      <c r="F968" t="n">
+        <v>1132.050048828125</v>
+      </c>
+      <c r="G968" t="n">
+        <v>24074</v>
+      </c>
+      <c r="H968" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I968" t="n">
+        <v>7</v>
+      </c>
+      <c r="J968" t="n">
+        <v>4</v>
+      </c>
+      <c r="K968" t="n">
+        <v>0</v>
+      </c>
+      <c r="L968" t="n">
+        <v>0</v>
+      </c>
+      <c r="M968" t="n">
+        <v>0</v>
+      </c>
+      <c r="N968" t="n">
+        <v>27</v>
+      </c>
+      <c r="O968" t="n">
+        <v>0</v>
+      </c>
+      <c r="P968" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q968" t="n">
+        <v>0</v>
+      </c>
+      <c r="R968" t="inlineStr"/>
+    </row>
+    <row r="969">
+      <c r="A969" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B969" t="n">
+        <v>1137.400024414062</v>
+      </c>
+      <c r="C969" t="n">
+        <v>1164.949951171875</v>
+      </c>
+      <c r="D969" t="n">
+        <v>1123</v>
+      </c>
+      <c r="E969" t="n">
+        <v>1155.150024414062</v>
+      </c>
+      <c r="F969" t="n">
+        <v>1155.150024414062</v>
+      </c>
+      <c r="G969" t="n">
+        <v>29459</v>
+      </c>
+      <c r="H969" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I969" t="n">
+        <v>7</v>
+      </c>
+      <c r="J969" t="n">
+        <v>5</v>
+      </c>
+      <c r="K969" t="n">
+        <v>0</v>
+      </c>
+      <c r="L969" t="n">
+        <v>0</v>
+      </c>
+      <c r="M969" t="n">
+        <v>0</v>
+      </c>
+      <c r="N969" t="n">
+        <v>27</v>
+      </c>
+      <c r="O969" t="n">
+        <v>0</v>
+      </c>
+      <c r="P969" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q969" t="n">
+        <v>0</v>
+      </c>
+      <c r="R969" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R969"/>
+  <dimension ref="A1:R978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -54509,7 +54509,9 @@
       <c r="Q965" t="n">
         <v>0</v>
       </c>
-      <c r="R965" t="inlineStr"/>
+      <c r="R965" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="966">
       <c r="A966" s="2" t="n">
@@ -54563,7 +54565,9 @@
       <c r="Q966" t="n">
         <v>0</v>
       </c>
-      <c r="R966" t="inlineStr"/>
+      <c r="R966" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="967">
       <c r="A967" s="2" t="n">
@@ -54617,7 +54621,9 @@
       <c r="Q967" t="n">
         <v>0</v>
       </c>
-      <c r="R967" t="inlineStr"/>
+      <c r="R967" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="968">
       <c r="A968" s="2" t="n">
@@ -54671,7 +54677,9 @@
       <c r="Q968" t="n">
         <v>0</v>
       </c>
-      <c r="R968" t="inlineStr"/>
+      <c r="R968" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="969">
       <c r="A969" s="2" t="n">
@@ -54725,7 +54733,495 @@
       <c r="Q969" t="n">
         <v>0</v>
       </c>
-      <c r="R969" t="inlineStr"/>
+      <c r="R969" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B970" t="n">
+        <v>1197.550048828125</v>
+      </c>
+      <c r="C970" t="n">
+        <v>1197.550048828125</v>
+      </c>
+      <c r="D970" t="n">
+        <v>1160</v>
+      </c>
+      <c r="E970" t="n">
+        <v>1168.099975585938</v>
+      </c>
+      <c r="F970" t="n">
+        <v>1168.099975585938</v>
+      </c>
+      <c r="G970" t="n">
+        <v>23991</v>
+      </c>
+      <c r="H970" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I970" t="n">
+        <v>7</v>
+      </c>
+      <c r="J970" t="n">
+        <v>8</v>
+      </c>
+      <c r="K970" t="n">
+        <v>0</v>
+      </c>
+      <c r="L970" t="n">
+        <v>0</v>
+      </c>
+      <c r="M970" t="n">
+        <v>0</v>
+      </c>
+      <c r="N970" t="n">
+        <v>28</v>
+      </c>
+      <c r="O970" t="n">
+        <v>0</v>
+      </c>
+      <c r="P970" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q970" t="n">
+        <v>2</v>
+      </c>
+      <c r="R970" t="inlineStr"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B971" t="n">
+        <v>1188</v>
+      </c>
+      <c r="C971" t="n">
+        <v>1188</v>
+      </c>
+      <c r="D971" t="n">
+        <v>1144.550048828125</v>
+      </c>
+      <c r="E971" t="n">
+        <v>1157.550048828125</v>
+      </c>
+      <c r="F971" t="n">
+        <v>1157.550048828125</v>
+      </c>
+      <c r="G971" t="n">
+        <v>28899</v>
+      </c>
+      <c r="H971" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I971" t="n">
+        <v>7</v>
+      </c>
+      <c r="J971" t="n">
+        <v>9</v>
+      </c>
+      <c r="K971" t="n">
+        <v>0</v>
+      </c>
+      <c r="L971" t="n">
+        <v>0</v>
+      </c>
+      <c r="M971" t="n">
+        <v>0</v>
+      </c>
+      <c r="N971" t="n">
+        <v>28</v>
+      </c>
+      <c r="O971" t="n">
+        <v>0</v>
+      </c>
+      <c r="P971" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q971" t="n">
+        <v>0</v>
+      </c>
+      <c r="R971" t="inlineStr"/>
+    </row>
+    <row r="972">
+      <c r="A972" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B972" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C972" t="n">
+        <v>1178</v>
+      </c>
+      <c r="D972" t="n">
+        <v>1122</v>
+      </c>
+      <c r="E972" t="n">
+        <v>1133.599975585938</v>
+      </c>
+      <c r="F972" t="n">
+        <v>1133.599975585938</v>
+      </c>
+      <c r="G972" t="n">
+        <v>27615</v>
+      </c>
+      <c r="H972" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I972" t="n">
+        <v>7</v>
+      </c>
+      <c r="J972" t="n">
+        <v>10</v>
+      </c>
+      <c r="K972" t="n">
+        <v>0</v>
+      </c>
+      <c r="L972" t="n">
+        <v>0</v>
+      </c>
+      <c r="M972" t="n">
+        <v>0</v>
+      </c>
+      <c r="N972" t="n">
+        <v>28</v>
+      </c>
+      <c r="O972" t="n">
+        <v>0</v>
+      </c>
+      <c r="P972" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q972" t="n">
+        <v>0</v>
+      </c>
+      <c r="R972" t="inlineStr"/>
+    </row>
+    <row r="973">
+      <c r="A973" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B973" t="n">
+        <v>1139.900024414062</v>
+      </c>
+      <c r="C973" t="n">
+        <v>1140</v>
+      </c>
+      <c r="D973" t="n">
+        <v>1106.400024414062</v>
+      </c>
+      <c r="E973" t="n">
+        <v>1116.900024414062</v>
+      </c>
+      <c r="F973" t="n">
+        <v>1116.900024414062</v>
+      </c>
+      <c r="G973" t="n">
+        <v>30568</v>
+      </c>
+      <c r="H973" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I973" t="n">
+        <v>7</v>
+      </c>
+      <c r="J973" t="n">
+        <v>11</v>
+      </c>
+      <c r="K973" t="n">
+        <v>0</v>
+      </c>
+      <c r="L973" t="n">
+        <v>0</v>
+      </c>
+      <c r="M973" t="n">
+        <v>0</v>
+      </c>
+      <c r="N973" t="n">
+        <v>28</v>
+      </c>
+      <c r="O973" t="n">
+        <v>0</v>
+      </c>
+      <c r="P973" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q973" t="n">
+        <v>0</v>
+      </c>
+      <c r="R973" t="inlineStr"/>
+    </row>
+    <row r="974">
+      <c r="A974" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B974" t="n">
+        <v>1119.099975585938</v>
+      </c>
+      <c r="C974" t="n">
+        <v>1240</v>
+      </c>
+      <c r="D974" t="n">
+        <v>1113.800048828125</v>
+      </c>
+      <c r="E974" t="n">
+        <v>1196.449951171875</v>
+      </c>
+      <c r="F974" t="n">
+        <v>1196.449951171875</v>
+      </c>
+      <c r="G974" t="n">
+        <v>291749</v>
+      </c>
+      <c r="H974" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I974" t="n">
+        <v>7</v>
+      </c>
+      <c r="J974" t="n">
+        <v>12</v>
+      </c>
+      <c r="K974" t="n">
+        <v>0</v>
+      </c>
+      <c r="L974" t="n">
+        <v>0</v>
+      </c>
+      <c r="M974" t="n">
+        <v>0</v>
+      </c>
+      <c r="N974" t="n">
+        <v>28</v>
+      </c>
+      <c r="O974" t="n">
+        <v>0</v>
+      </c>
+      <c r="P974" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q974" t="n">
+        <v>0</v>
+      </c>
+      <c r="R974" t="inlineStr"/>
+    </row>
+    <row r="975">
+      <c r="A975" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B975" t="n">
+        <v>1230</v>
+      </c>
+      <c r="C975" t="n">
+        <v>1274</v>
+      </c>
+      <c r="D975" t="n">
+        <v>1203.900024414062</v>
+      </c>
+      <c r="E975" t="n">
+        <v>1221.599975585938</v>
+      </c>
+      <c r="F975" t="n">
+        <v>1221.599975585938</v>
+      </c>
+      <c r="G975" t="n">
+        <v>133601</v>
+      </c>
+      <c r="H975" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I975" t="n">
+        <v>7</v>
+      </c>
+      <c r="J975" t="n">
+        <v>15</v>
+      </c>
+      <c r="K975" t="n">
+        <v>0</v>
+      </c>
+      <c r="L975" t="n">
+        <v>0</v>
+      </c>
+      <c r="M975" t="n">
+        <v>0</v>
+      </c>
+      <c r="N975" t="n">
+        <v>29</v>
+      </c>
+      <c r="O975" t="n">
+        <v>0</v>
+      </c>
+      <c r="P975" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q975" t="n">
+        <v>0</v>
+      </c>
+      <c r="R975" t="inlineStr"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B976" t="n">
+        <v>1221.599975585938</v>
+      </c>
+      <c r="C976" t="n">
+        <v>1228.449951171875</v>
+      </c>
+      <c r="D976" t="n">
+        <v>1185</v>
+      </c>
+      <c r="E976" t="n">
+        <v>1191.199951171875</v>
+      </c>
+      <c r="F976" t="n">
+        <v>1191.199951171875</v>
+      </c>
+      <c r="G976" t="n">
+        <v>71721</v>
+      </c>
+      <c r="H976" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I976" t="n">
+        <v>7</v>
+      </c>
+      <c r="J976" t="n">
+        <v>16</v>
+      </c>
+      <c r="K976" t="n">
+        <v>0</v>
+      </c>
+      <c r="L976" t="n">
+        <v>0</v>
+      </c>
+      <c r="M976" t="n">
+        <v>0</v>
+      </c>
+      <c r="N976" t="n">
+        <v>29</v>
+      </c>
+      <c r="O976" t="n">
+        <v>0</v>
+      </c>
+      <c r="P976" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q976" t="n">
+        <v>0</v>
+      </c>
+      <c r="R976" t="inlineStr"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B977" t="n">
+        <v>1209</v>
+      </c>
+      <c r="C977" t="n">
+        <v>1209</v>
+      </c>
+      <c r="D977" t="n">
+        <v>1165.150024414062</v>
+      </c>
+      <c r="E977" t="n">
+        <v>1193</v>
+      </c>
+      <c r="F977" t="n">
+        <v>1193</v>
+      </c>
+      <c r="G977" t="n">
+        <v>36484</v>
+      </c>
+      <c r="H977" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I977" t="n">
+        <v>7</v>
+      </c>
+      <c r="J977" t="n">
+        <v>18</v>
+      </c>
+      <c r="K977" t="n">
+        <v>0</v>
+      </c>
+      <c r="L977" t="n">
+        <v>0</v>
+      </c>
+      <c r="M977" t="n">
+        <v>0</v>
+      </c>
+      <c r="N977" t="n">
+        <v>29</v>
+      </c>
+      <c r="O977" t="n">
+        <v>0</v>
+      </c>
+      <c r="P977" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q977" t="n">
+        <v>0</v>
+      </c>
+      <c r="R977" t="inlineStr"/>
+    </row>
+    <row r="978">
+      <c r="A978" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B978" t="n">
+        <v>1207.800048828125</v>
+      </c>
+      <c r="C978" t="n">
+        <v>1235.300048828125</v>
+      </c>
+      <c r="D978" t="n">
+        <v>1186.5</v>
+      </c>
+      <c r="E978" t="n">
+        <v>1208.400024414062</v>
+      </c>
+      <c r="F978" t="n">
+        <v>1208.400024414062</v>
+      </c>
+      <c r="G978" t="n">
+        <v>89663</v>
+      </c>
+      <c r="H978" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I978" t="n">
+        <v>7</v>
+      </c>
+      <c r="J978" t="n">
+        <v>19</v>
+      </c>
+      <c r="K978" t="n">
+        <v>0</v>
+      </c>
+      <c r="L978" t="n">
+        <v>0</v>
+      </c>
+      <c r="M978" t="n">
+        <v>0</v>
+      </c>
+      <c r="N978" t="n">
+        <v>29</v>
+      </c>
+      <c r="O978" t="n">
+        <v>0</v>
+      </c>
+      <c r="P978" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q978" t="n">
+        <v>0</v>
+      </c>
+      <c r="R978" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R978"/>
+  <dimension ref="A1:R988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54789,7 +54789,9 @@
       <c r="Q970" t="n">
         <v>2</v>
       </c>
-      <c r="R970" t="inlineStr"/>
+      <c r="R970" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="971">
       <c r="A971" s="2" t="n">
@@ -54843,7 +54845,9 @@
       <c r="Q971" t="n">
         <v>0</v>
       </c>
-      <c r="R971" t="inlineStr"/>
+      <c r="R971" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="972">
       <c r="A972" s="2" t="n">
@@ -54897,7 +54901,9 @@
       <c r="Q972" t="n">
         <v>0</v>
       </c>
-      <c r="R972" t="inlineStr"/>
+      <c r="R972" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="973">
       <c r="A973" s="2" t="n">
@@ -54951,7 +54957,9 @@
       <c r="Q973" t="n">
         <v>0</v>
       </c>
-      <c r="R973" t="inlineStr"/>
+      <c r="R973" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="974">
       <c r="A974" s="2" t="n">
@@ -55005,7 +55013,9 @@
       <c r="Q974" t="n">
         <v>0</v>
       </c>
-      <c r="R974" t="inlineStr"/>
+      <c r="R974" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="975">
       <c r="A975" s="2" t="n">
@@ -55051,7 +55061,7 @@
         <v>29</v>
       </c>
       <c r="O975" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P975" t="n">
         <v>0</v>
@@ -55059,7 +55069,9 @@
       <c r="Q975" t="n">
         <v>0</v>
       </c>
-      <c r="R975" t="inlineStr"/>
+      <c r="R975" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="976">
       <c r="A976" s="2" t="n">
@@ -55113,7 +55125,9 @@
       <c r="Q976" t="n">
         <v>0</v>
       </c>
-      <c r="R976" t="inlineStr"/>
+      <c r="R976" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="977">
       <c r="A977" s="2" t="n">
@@ -55167,7 +55181,9 @@
       <c r="Q977" t="n">
         <v>0</v>
       </c>
-      <c r="R977" t="inlineStr"/>
+      <c r="R977" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="978">
       <c r="A978" s="2" t="n">
@@ -55221,7 +55237,549 @@
       <c r="Q978" t="n">
         <v>0</v>
       </c>
-      <c r="R978" t="inlineStr"/>
+      <c r="R978" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B979" t="n">
+        <v>1140</v>
+      </c>
+      <c r="C979" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D979" t="n">
+        <v>1091.599975585938</v>
+      </c>
+      <c r="E979" t="n">
+        <v>1097.800048828125</v>
+      </c>
+      <c r="F979" t="n">
+        <v>1097.800048828125</v>
+      </c>
+      <c r="G979" t="n">
+        <v>135334</v>
+      </c>
+      <c r="H979" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I979" t="n">
+        <v>7</v>
+      </c>
+      <c r="J979" t="n">
+        <v>22</v>
+      </c>
+      <c r="K979" t="n">
+        <v>0</v>
+      </c>
+      <c r="L979" t="n">
+        <v>0</v>
+      </c>
+      <c r="M979" t="n">
+        <v>0</v>
+      </c>
+      <c r="N979" t="n">
+        <v>30</v>
+      </c>
+      <c r="O979" t="n">
+        <v>0</v>
+      </c>
+      <c r="P979" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q979" t="n">
+        <v>0</v>
+      </c>
+      <c r="R979" t="inlineStr"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B980" t="n">
+        <v>1117.550048828125</v>
+      </c>
+      <c r="C980" t="n">
+        <v>1123.650024414062</v>
+      </c>
+      <c r="D980" t="n">
+        <v>1060</v>
+      </c>
+      <c r="E980" t="n">
+        <v>1093.400024414062</v>
+      </c>
+      <c r="F980" t="n">
+        <v>1093.400024414062</v>
+      </c>
+      <c r="G980" t="n">
+        <v>53428</v>
+      </c>
+      <c r="H980" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I980" t="n">
+        <v>7</v>
+      </c>
+      <c r="J980" t="n">
+        <v>23</v>
+      </c>
+      <c r="K980" t="n">
+        <v>0</v>
+      </c>
+      <c r="L980" t="n">
+        <v>0</v>
+      </c>
+      <c r="M980" t="n">
+        <v>0</v>
+      </c>
+      <c r="N980" t="n">
+        <v>30</v>
+      </c>
+      <c r="O980" t="n">
+        <v>0</v>
+      </c>
+      <c r="P980" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q980" t="n">
+        <v>0</v>
+      </c>
+      <c r="R980" t="inlineStr"/>
+    </row>
+    <row r="981">
+      <c r="A981" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B981" t="n">
+        <v>1091.050048828125</v>
+      </c>
+      <c r="C981" t="n">
+        <v>1117.300048828125</v>
+      </c>
+      <c r="D981" t="n">
+        <v>1090</v>
+      </c>
+      <c r="E981" t="n">
+        <v>1096.949951171875</v>
+      </c>
+      <c r="F981" t="n">
+        <v>1096.949951171875</v>
+      </c>
+      <c r="G981" t="n">
+        <v>36670</v>
+      </c>
+      <c r="H981" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I981" t="n">
+        <v>7</v>
+      </c>
+      <c r="J981" t="n">
+        <v>24</v>
+      </c>
+      <c r="K981" t="n">
+        <v>0</v>
+      </c>
+      <c r="L981" t="n">
+        <v>0</v>
+      </c>
+      <c r="M981" t="n">
+        <v>0</v>
+      </c>
+      <c r="N981" t="n">
+        <v>30</v>
+      </c>
+      <c r="O981" t="n">
+        <v>0</v>
+      </c>
+      <c r="P981" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q981" t="n">
+        <v>0</v>
+      </c>
+      <c r="R981" t="inlineStr"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B982" t="n">
+        <v>1085</v>
+      </c>
+      <c r="C982" t="n">
+        <v>1096.699951171875</v>
+      </c>
+      <c r="D982" t="n">
+        <v>1065</v>
+      </c>
+      <c r="E982" t="n">
+        <v>1067.75</v>
+      </c>
+      <c r="F982" t="n">
+        <v>1067.75</v>
+      </c>
+      <c r="G982" t="n">
+        <v>46016</v>
+      </c>
+      <c r="H982" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I982" t="n">
+        <v>7</v>
+      </c>
+      <c r="J982" t="n">
+        <v>25</v>
+      </c>
+      <c r="K982" t="n">
+        <v>0</v>
+      </c>
+      <c r="L982" t="n">
+        <v>0</v>
+      </c>
+      <c r="M982" t="n">
+        <v>0</v>
+      </c>
+      <c r="N982" t="n">
+        <v>30</v>
+      </c>
+      <c r="O982" t="n">
+        <v>0</v>
+      </c>
+      <c r="P982" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q982" t="n">
+        <v>0</v>
+      </c>
+      <c r="R982" t="inlineStr"/>
+    </row>
+    <row r="983">
+      <c r="A983" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B983" t="n">
+        <v>1075.300048828125</v>
+      </c>
+      <c r="C983" t="n">
+        <v>1092.050048828125</v>
+      </c>
+      <c r="D983" t="n">
+        <v>1053.599975585938</v>
+      </c>
+      <c r="E983" t="n">
+        <v>1070.25</v>
+      </c>
+      <c r="F983" t="n">
+        <v>1070.25</v>
+      </c>
+      <c r="G983" t="n">
+        <v>39903</v>
+      </c>
+      <c r="H983" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I983" t="n">
+        <v>7</v>
+      </c>
+      <c r="J983" t="n">
+        <v>26</v>
+      </c>
+      <c r="K983" t="n">
+        <v>0</v>
+      </c>
+      <c r="L983" t="n">
+        <v>0</v>
+      </c>
+      <c r="M983" t="n">
+        <v>0</v>
+      </c>
+      <c r="N983" t="n">
+        <v>30</v>
+      </c>
+      <c r="O983" t="n">
+        <v>0</v>
+      </c>
+      <c r="P983" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q983" t="n">
+        <v>0</v>
+      </c>
+      <c r="R983" t="inlineStr"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B984" t="n">
+        <v>1073</v>
+      </c>
+      <c r="C984" t="n">
+        <v>1095.650024414062</v>
+      </c>
+      <c r="D984" t="n">
+        <v>1070</v>
+      </c>
+      <c r="E984" t="n">
+        <v>1074.699951171875</v>
+      </c>
+      <c r="F984" t="n">
+        <v>1074.699951171875</v>
+      </c>
+      <c r="G984" t="n">
+        <v>30340</v>
+      </c>
+      <c r="H984" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I984" t="n">
+        <v>7</v>
+      </c>
+      <c r="J984" t="n">
+        <v>29</v>
+      </c>
+      <c r="K984" t="n">
+        <v>0</v>
+      </c>
+      <c r="L984" t="n">
+        <v>0</v>
+      </c>
+      <c r="M984" t="n">
+        <v>0</v>
+      </c>
+      <c r="N984" t="n">
+        <v>31</v>
+      </c>
+      <c r="O984" t="n">
+        <v>0</v>
+      </c>
+      <c r="P984" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q984" t="n">
+        <v>0</v>
+      </c>
+      <c r="R984" t="inlineStr"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B985" t="n">
+        <v>1075.949951171875</v>
+      </c>
+      <c r="C985" t="n">
+        <v>1084.300048828125</v>
+      </c>
+      <c r="D985" t="n">
+        <v>1060</v>
+      </c>
+      <c r="E985" t="n">
+        <v>1067.150024414062</v>
+      </c>
+      <c r="F985" t="n">
+        <v>1067.150024414062</v>
+      </c>
+      <c r="G985" t="n">
+        <v>28677</v>
+      </c>
+      <c r="H985" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I985" t="n">
+        <v>7</v>
+      </c>
+      <c r="J985" t="n">
+        <v>30</v>
+      </c>
+      <c r="K985" t="n">
+        <v>0</v>
+      </c>
+      <c r="L985" t="n">
+        <v>0</v>
+      </c>
+      <c r="M985" t="n">
+        <v>0</v>
+      </c>
+      <c r="N985" t="n">
+        <v>31</v>
+      </c>
+      <c r="O985" t="n">
+        <v>0</v>
+      </c>
+      <c r="P985" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q985" t="n">
+        <v>0</v>
+      </c>
+      <c r="R985" t="inlineStr"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B986" t="n">
+        <v>1077.75</v>
+      </c>
+      <c r="C986" t="n">
+        <v>1085.900024414062</v>
+      </c>
+      <c r="D986" t="n">
+        <v>1071.400024414062</v>
+      </c>
+      <c r="E986" t="n">
+        <v>1078.300048828125</v>
+      </c>
+      <c r="F986" t="n">
+        <v>1078.300048828125</v>
+      </c>
+      <c r="G986" t="n">
+        <v>18381</v>
+      </c>
+      <c r="H986" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I986" t="n">
+        <v>7</v>
+      </c>
+      <c r="J986" t="n">
+        <v>31</v>
+      </c>
+      <c r="K986" t="n">
+        <v>0</v>
+      </c>
+      <c r="L986" t="n">
+        <v>0</v>
+      </c>
+      <c r="M986" t="n">
+        <v>0</v>
+      </c>
+      <c r="N986" t="n">
+        <v>31</v>
+      </c>
+      <c r="O986" t="n">
+        <v>0</v>
+      </c>
+      <c r="P986" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q986" t="n">
+        <v>2</v>
+      </c>
+      <c r="R986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B987" t="n">
+        <v>1090</v>
+      </c>
+      <c r="C987" t="n">
+        <v>1090.199951171875</v>
+      </c>
+      <c r="D987" t="n">
+        <v>1060.050048828125</v>
+      </c>
+      <c r="E987" t="n">
+        <v>1068.199951171875</v>
+      </c>
+      <c r="F987" t="n">
+        <v>1068.199951171875</v>
+      </c>
+      <c r="G987" t="n">
+        <v>36273</v>
+      </c>
+      <c r="H987" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I987" t="n">
+        <v>8</v>
+      </c>
+      <c r="J987" t="n">
+        <v>1</v>
+      </c>
+      <c r="K987" t="n">
+        <v>0</v>
+      </c>
+      <c r="L987" t="n">
+        <v>0</v>
+      </c>
+      <c r="M987" t="n">
+        <v>0</v>
+      </c>
+      <c r="N987" t="n">
+        <v>31</v>
+      </c>
+      <c r="O987" t="n">
+        <v>0</v>
+      </c>
+      <c r="P987" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q987" t="n">
+        <v>0</v>
+      </c>
+      <c r="R987" t="inlineStr"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B988" t="n">
+        <v>1066</v>
+      </c>
+      <c r="C988" t="n">
+        <v>1068.199951171875</v>
+      </c>
+      <c r="D988" t="n">
+        <v>1056</v>
+      </c>
+      <c r="E988" t="n">
+        <v>1063.199951171875</v>
+      </c>
+      <c r="F988" t="n">
+        <v>1063.199951171875</v>
+      </c>
+      <c r="G988" t="n">
+        <v>18950</v>
+      </c>
+      <c r="H988" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I988" t="n">
+        <v>8</v>
+      </c>
+      <c r="J988" t="n">
+        <v>2</v>
+      </c>
+      <c r="K988" t="n">
+        <v>0</v>
+      </c>
+      <c r="L988" t="n">
+        <v>0</v>
+      </c>
+      <c r="M988" t="n">
+        <v>0</v>
+      </c>
+      <c r="N988" t="n">
+        <v>31</v>
+      </c>
+      <c r="O988" t="n">
+        <v>0</v>
+      </c>
+      <c r="P988" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q988" t="n">
+        <v>0</v>
+      </c>
+      <c r="R988" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R988"/>
+  <dimension ref="A1:R993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55293,7 +55293,9 @@
       <c r="Q979" t="n">
         <v>0</v>
       </c>
-      <c r="R979" t="inlineStr"/>
+      <c r="R979" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="980">
       <c r="A980" s="2" t="n">
@@ -55347,7 +55349,9 @@
       <c r="Q980" t="n">
         <v>0</v>
       </c>
-      <c r="R980" t="inlineStr"/>
+      <c r="R980" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="981">
       <c r="A981" s="2" t="n">
@@ -55401,7 +55405,9 @@
       <c r="Q981" t="n">
         <v>0</v>
       </c>
-      <c r="R981" t="inlineStr"/>
+      <c r="R981" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="982">
       <c r="A982" s="2" t="n">
@@ -55455,7 +55461,9 @@
       <c r="Q982" t="n">
         <v>0</v>
       </c>
-      <c r="R982" t="inlineStr"/>
+      <c r="R982" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="983">
       <c r="A983" s="2" t="n">
@@ -55509,7 +55517,9 @@
       <c r="Q983" t="n">
         <v>0</v>
       </c>
-      <c r="R983" t="inlineStr"/>
+      <c r="R983" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="984">
       <c r="A984" s="2" t="n">
@@ -55563,7 +55573,9 @@
       <c r="Q984" t="n">
         <v>0</v>
       </c>
-      <c r="R984" t="inlineStr"/>
+      <c r="R984" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="985">
       <c r="A985" s="2" t="n">
@@ -55617,7 +55629,9 @@
       <c r="Q985" t="n">
         <v>0</v>
       </c>
-      <c r="R985" t="inlineStr"/>
+      <c r="R985" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="986">
       <c r="A986" s="2" t="n">
@@ -55671,7 +55685,9 @@
       <c r="Q986" t="n">
         <v>2</v>
       </c>
-      <c r="R986" t="inlineStr"/>
+      <c r="R986" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="987">
       <c r="A987" s="2" t="n">
@@ -55725,7 +55741,9 @@
       <c r="Q987" t="n">
         <v>0</v>
       </c>
-      <c r="R987" t="inlineStr"/>
+      <c r="R987" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="988">
       <c r="A988" s="2" t="n">
@@ -55779,7 +55797,279 @@
       <c r="Q988" t="n">
         <v>0</v>
       </c>
-      <c r="R988" t="inlineStr"/>
+      <c r="R988" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B989" t="n">
+        <v>1049.449951171875</v>
+      </c>
+      <c r="C989" t="n">
+        <v>1049.449951171875</v>
+      </c>
+      <c r="D989" t="n">
+        <v>1010.099975585938</v>
+      </c>
+      <c r="E989" t="n">
+        <v>1019.400024414062</v>
+      </c>
+      <c r="F989" t="n">
+        <v>1019.400024414062</v>
+      </c>
+      <c r="G989" t="n">
+        <v>43641</v>
+      </c>
+      <c r="H989" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I989" t="n">
+        <v>8</v>
+      </c>
+      <c r="J989" t="n">
+        <v>5</v>
+      </c>
+      <c r="K989" t="n">
+        <v>0</v>
+      </c>
+      <c r="L989" t="n">
+        <v>0</v>
+      </c>
+      <c r="M989" t="n">
+        <v>0</v>
+      </c>
+      <c r="N989" t="n">
+        <v>32</v>
+      </c>
+      <c r="O989" t="n">
+        <v>0</v>
+      </c>
+      <c r="P989" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q989" t="n">
+        <v>0</v>
+      </c>
+      <c r="R989" t="inlineStr"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B990" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C990" t="n">
+        <v>1063.099975585938</v>
+      </c>
+      <c r="D990" t="n">
+        <v>1010</v>
+      </c>
+      <c r="E990" t="n">
+        <v>1011.900024414062</v>
+      </c>
+      <c r="F990" t="n">
+        <v>1011.900024414062</v>
+      </c>
+      <c r="G990" t="n">
+        <v>52800</v>
+      </c>
+      <c r="H990" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I990" t="n">
+        <v>8</v>
+      </c>
+      <c r="J990" t="n">
+        <v>6</v>
+      </c>
+      <c r="K990" t="n">
+        <v>0</v>
+      </c>
+      <c r="L990" t="n">
+        <v>0</v>
+      </c>
+      <c r="M990" t="n">
+        <v>0</v>
+      </c>
+      <c r="N990" t="n">
+        <v>32</v>
+      </c>
+      <c r="O990" t="n">
+        <v>0</v>
+      </c>
+      <c r="P990" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q990" t="n">
+        <v>0</v>
+      </c>
+      <c r="R990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B991" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C991" t="n">
+        <v>1095</v>
+      </c>
+      <c r="D991" t="n">
+        <v>999.9500122070312</v>
+      </c>
+      <c r="E991" t="n">
+        <v>1085.550048828125</v>
+      </c>
+      <c r="F991" t="n">
+        <v>1085.550048828125</v>
+      </c>
+      <c r="G991" t="n">
+        <v>65724</v>
+      </c>
+      <c r="H991" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I991" t="n">
+        <v>8</v>
+      </c>
+      <c r="J991" t="n">
+        <v>7</v>
+      </c>
+      <c r="K991" t="n">
+        <v>0</v>
+      </c>
+      <c r="L991" t="n">
+        <v>0</v>
+      </c>
+      <c r="M991" t="n">
+        <v>0</v>
+      </c>
+      <c r="N991" t="n">
+        <v>32</v>
+      </c>
+      <c r="O991" t="n">
+        <v>0</v>
+      </c>
+      <c r="P991" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q991" t="n">
+        <v>0</v>
+      </c>
+      <c r="R991" t="inlineStr"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B992" t="n">
+        <v>1098</v>
+      </c>
+      <c r="C992" t="n">
+        <v>1098</v>
+      </c>
+      <c r="D992" t="n">
+        <v>1054</v>
+      </c>
+      <c r="E992" t="n">
+        <v>1061.349975585938</v>
+      </c>
+      <c r="F992" t="n">
+        <v>1061.349975585938</v>
+      </c>
+      <c r="G992" t="n">
+        <v>29751</v>
+      </c>
+      <c r="H992" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I992" t="n">
+        <v>8</v>
+      </c>
+      <c r="J992" t="n">
+        <v>8</v>
+      </c>
+      <c r="K992" t="n">
+        <v>0</v>
+      </c>
+      <c r="L992" t="n">
+        <v>0</v>
+      </c>
+      <c r="M992" t="n">
+        <v>0</v>
+      </c>
+      <c r="N992" t="n">
+        <v>32</v>
+      </c>
+      <c r="O992" t="n">
+        <v>0</v>
+      </c>
+      <c r="P992" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q992" t="n">
+        <v>0</v>
+      </c>
+      <c r="R992" t="inlineStr"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B993" t="n">
+        <v>1075</v>
+      </c>
+      <c r="C993" t="n">
+        <v>1082</v>
+      </c>
+      <c r="D993" t="n">
+        <v>1045.099975585938</v>
+      </c>
+      <c r="E993" t="n">
+        <v>1053.199951171875</v>
+      </c>
+      <c r="F993" t="n">
+        <v>1053.199951171875</v>
+      </c>
+      <c r="G993" t="n">
+        <v>23623</v>
+      </c>
+      <c r="H993" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I993" t="n">
+        <v>8</v>
+      </c>
+      <c r="J993" t="n">
+        <v>9</v>
+      </c>
+      <c r="K993" t="n">
+        <v>0</v>
+      </c>
+      <c r="L993" t="n">
+        <v>0</v>
+      </c>
+      <c r="M993" t="n">
+        <v>0</v>
+      </c>
+      <c r="N993" t="n">
+        <v>32</v>
+      </c>
+      <c r="O993" t="n">
+        <v>0</v>
+      </c>
+      <c r="P993" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q993" t="n">
+        <v>0</v>
+      </c>
+      <c r="R993" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R993"/>
+  <dimension ref="A1:R997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -55853,7 +55853,9 @@
       <c r="Q989" t="n">
         <v>0</v>
       </c>
-      <c r="R989" t="inlineStr"/>
+      <c r="R989" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="990">
       <c r="A990" s="2" t="n">
@@ -55907,7 +55909,9 @@
       <c r="Q990" t="n">
         <v>0</v>
       </c>
-      <c r="R990" t="inlineStr"/>
+      <c r="R990" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="991">
       <c r="A991" s="2" t="n">
@@ -55961,7 +55965,9 @@
       <c r="Q991" t="n">
         <v>0</v>
       </c>
-      <c r="R991" t="inlineStr"/>
+      <c r="R991" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="992">
       <c r="A992" s="2" t="n">
@@ -56015,7 +56021,9 @@
       <c r="Q992" t="n">
         <v>0</v>
       </c>
-      <c r="R992" t="inlineStr"/>
+      <c r="R992" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="993">
       <c r="A993" s="2" t="n">
@@ -56069,7 +56077,225 @@
       <c r="Q993" t="n">
         <v>0</v>
       </c>
-      <c r="R993" t="inlineStr"/>
+      <c r="R993" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B994" t="n">
+        <v>1053.199951171875</v>
+      </c>
+      <c r="C994" t="n">
+        <v>1053.199951171875</v>
+      </c>
+      <c r="D994" t="n">
+        <v>1026.050048828125</v>
+      </c>
+      <c r="E994" t="n">
+        <v>1033</v>
+      </c>
+      <c r="F994" t="n">
+        <v>1033</v>
+      </c>
+      <c r="G994" t="n">
+        <v>23518</v>
+      </c>
+      <c r="H994" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I994" t="n">
+        <v>8</v>
+      </c>
+      <c r="J994" t="n">
+        <v>12</v>
+      </c>
+      <c r="K994" t="n">
+        <v>0</v>
+      </c>
+      <c r="L994" t="n">
+        <v>0</v>
+      </c>
+      <c r="M994" t="n">
+        <v>0</v>
+      </c>
+      <c r="N994" t="n">
+        <v>33</v>
+      </c>
+      <c r="O994" t="n">
+        <v>0</v>
+      </c>
+      <c r="P994" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q994" t="n">
+        <v>0</v>
+      </c>
+      <c r="R994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B995" t="n">
+        <v>1021.049987792969</v>
+      </c>
+      <c r="C995" t="n">
+        <v>1052.099975585938</v>
+      </c>
+      <c r="D995" t="n">
+        <v>1021</v>
+      </c>
+      <c r="E995" t="n">
+        <v>1033.400024414062</v>
+      </c>
+      <c r="F995" t="n">
+        <v>1033.400024414062</v>
+      </c>
+      <c r="G995" t="n">
+        <v>27866</v>
+      </c>
+      <c r="H995" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I995" t="n">
+        <v>8</v>
+      </c>
+      <c r="J995" t="n">
+        <v>13</v>
+      </c>
+      <c r="K995" t="n">
+        <v>0</v>
+      </c>
+      <c r="L995" t="n">
+        <v>0</v>
+      </c>
+      <c r="M995" t="n">
+        <v>0</v>
+      </c>
+      <c r="N995" t="n">
+        <v>33</v>
+      </c>
+      <c r="O995" t="n">
+        <v>0</v>
+      </c>
+      <c r="P995" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q995" t="n">
+        <v>0</v>
+      </c>
+      <c r="R995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B996" t="n">
+        <v>1048</v>
+      </c>
+      <c r="C996" t="n">
+        <v>1048</v>
+      </c>
+      <c r="D996" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E996" t="n">
+        <v>1013.450012207031</v>
+      </c>
+      <c r="F996" t="n">
+        <v>1013.450012207031</v>
+      </c>
+      <c r="G996" t="n">
+        <v>38446</v>
+      </c>
+      <c r="H996" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I996" t="n">
+        <v>8</v>
+      </c>
+      <c r="J996" t="n">
+        <v>14</v>
+      </c>
+      <c r="K996" t="n">
+        <v>0</v>
+      </c>
+      <c r="L996" t="n">
+        <v>0</v>
+      </c>
+      <c r="M996" t="n">
+        <v>0</v>
+      </c>
+      <c r="N996" t="n">
+        <v>33</v>
+      </c>
+      <c r="O996" t="n">
+        <v>0</v>
+      </c>
+      <c r="P996" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q996" t="n">
+        <v>0</v>
+      </c>
+      <c r="R996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B997" t="n">
+        <v>1030.050048828125</v>
+      </c>
+      <c r="C997" t="n">
+        <v>1033.199951171875</v>
+      </c>
+      <c r="D997" t="n">
+        <v>1007.299987792969</v>
+      </c>
+      <c r="E997" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F997" t="n">
+        <v>1017</v>
+      </c>
+      <c r="G997" t="n">
+        <v>27066</v>
+      </c>
+      <c r="H997" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I997" t="n">
+        <v>8</v>
+      </c>
+      <c r="J997" t="n">
+        <v>16</v>
+      </c>
+      <c r="K997" t="n">
+        <v>0</v>
+      </c>
+      <c r="L997" t="n">
+        <v>0</v>
+      </c>
+      <c r="M997" t="n">
+        <v>0</v>
+      </c>
+      <c r="N997" t="n">
+        <v>33</v>
+      </c>
+      <c r="O997" t="n">
+        <v>0</v>
+      </c>
+      <c r="P997" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q997" t="n">
+        <v>0</v>
+      </c>
+      <c r="R997" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R997"/>
+  <dimension ref="A1:R1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56013,7 +56013,7 @@
         <v>32</v>
       </c>
       <c r="O992" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P992" t="n">
         <v>0</v>
@@ -56133,7 +56133,9 @@
       <c r="Q994" t="n">
         <v>0</v>
       </c>
-      <c r="R994" t="inlineStr"/>
+      <c r="R994" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="995">
       <c r="A995" s="2" t="n">
@@ -56187,7 +56189,9 @@
       <c r="Q995" t="n">
         <v>0</v>
       </c>
-      <c r="R995" t="inlineStr"/>
+      <c r="R995" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="996">
       <c r="A996" s="2" t="n">
@@ -56241,7 +56245,9 @@
       <c r="Q996" t="n">
         <v>0</v>
       </c>
-      <c r="R996" t="inlineStr"/>
+      <c r="R996" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="997">
       <c r="A997" s="2" t="n">
@@ -56295,7 +56301,279 @@
       <c r="Q997" t="n">
         <v>0</v>
       </c>
-      <c r="R997" t="inlineStr"/>
+      <c r="R997" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B998" t="n">
+        <v>999.9000244140625</v>
+      </c>
+      <c r="C998" t="n">
+        <v>1028</v>
+      </c>
+      <c r="D998" t="n">
+        <v>998.5499877929688</v>
+      </c>
+      <c r="E998" t="n">
+        <v>1022.299987792969</v>
+      </c>
+      <c r="F998" t="n">
+        <v>1022.299987792969</v>
+      </c>
+      <c r="G998" t="n">
+        <v>34260</v>
+      </c>
+      <c r="H998" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I998" t="n">
+        <v>8</v>
+      </c>
+      <c r="J998" t="n">
+        <v>19</v>
+      </c>
+      <c r="K998" t="n">
+        <v>0</v>
+      </c>
+      <c r="L998" t="n">
+        <v>0</v>
+      </c>
+      <c r="M998" t="n">
+        <v>0</v>
+      </c>
+      <c r="N998" t="n">
+        <v>34</v>
+      </c>
+      <c r="O998" t="n">
+        <v>0</v>
+      </c>
+      <c r="P998" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q998" t="n">
+        <v>0</v>
+      </c>
+      <c r="R998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B999" t="n">
+        <v>1034.949951171875</v>
+      </c>
+      <c r="C999" t="n">
+        <v>1035</v>
+      </c>
+      <c r="D999" t="n">
+        <v>1010</v>
+      </c>
+      <c r="E999" t="n">
+        <v>1031.349975585938</v>
+      </c>
+      <c r="F999" t="n">
+        <v>1031.349975585938</v>
+      </c>
+      <c r="G999" t="n">
+        <v>40425</v>
+      </c>
+      <c r="H999" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I999" t="n">
+        <v>8</v>
+      </c>
+      <c r="J999" t="n">
+        <v>20</v>
+      </c>
+      <c r="K999" t="n">
+        <v>0</v>
+      </c>
+      <c r="L999" t="n">
+        <v>0</v>
+      </c>
+      <c r="M999" t="n">
+        <v>0</v>
+      </c>
+      <c r="N999" t="n">
+        <v>34</v>
+      </c>
+      <c r="O999" t="n">
+        <v>0</v>
+      </c>
+      <c r="P999" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q999" t="n">
+        <v>0</v>
+      </c>
+      <c r="R999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>1026.050048828125</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>1048.949951171875</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>1017</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>1030.199951171875</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>1030.199951171875</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>36696</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1000" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>1067.699951171875</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>1067.699951171875</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>1032.050048828125</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>1041.050048828125</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>1041.050048828125</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>42678</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1001" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1001" t="inlineStr"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>1049.949951171875</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>1049.949951171875</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>1031</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>1033.25</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>1033.25</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>20464</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1002" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1002" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1002"/>
+  <dimension ref="A1:R1007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -56357,7 +56357,9 @@
       <c r="Q998" t="n">
         <v>0</v>
       </c>
-      <c r="R998" t="inlineStr"/>
+      <c r="R998" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="999">
       <c r="A999" s="2" t="n">
@@ -56411,7 +56413,9 @@
       <c r="Q999" t="n">
         <v>0</v>
       </c>
-      <c r="R999" t="inlineStr"/>
+      <c r="R999" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1000">
       <c r="A1000" s="2" t="n">
@@ -56465,7 +56469,9 @@
       <c r="Q1000" t="n">
         <v>0</v>
       </c>
-      <c r="R1000" t="inlineStr"/>
+      <c r="R1000" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1001">
       <c r="A1001" s="2" t="n">
@@ -56519,7 +56525,9 @@
       <c r="Q1001" t="n">
         <v>0</v>
       </c>
-      <c r="R1001" t="inlineStr"/>
+      <c r="R1001" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1002">
       <c r="A1002" s="2" t="n">
@@ -56573,7 +56581,279 @@
       <c r="Q1002" t="n">
         <v>0</v>
       </c>
-      <c r="R1002" t="inlineStr"/>
+      <c r="R1002" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>1054.800048828125</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>1013.5</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>1035.599975585938</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>1035.599975585938</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>38407</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1003" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>1058</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>1033.900024414062</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>1052.050048828125</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>1052.050048828125</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>26131</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1004" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>1060</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>1095</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>1046.599975585938</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>1071.400024414062</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>1071.400024414062</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>52063</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1005" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>1071.449951171875</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>1081.449951171875</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>1039.550048828125</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>1048.199951171875</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>1048.199951171875</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>28268</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1006" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>1063.900024414062</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>1065.300048828125</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>1046.650024414062</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>1056.849975585938</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>1056.849975585938</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>18084</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1007" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1007" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1007"/>
+  <dimension ref="A1:R1012"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56349,7 +56349,7 @@
         <v>34</v>
       </c>
       <c r="O998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P998" t="n">
         <v>0</v>
@@ -56637,7 +56637,9 @@
       <c r="Q1003" t="n">
         <v>0</v>
       </c>
-      <c r="R1003" t="inlineStr"/>
+      <c r="R1003" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1004">
       <c r="A1004" s="2" t="n">
@@ -56691,7 +56693,9 @@
       <c r="Q1004" t="n">
         <v>0</v>
       </c>
-      <c r="R1004" t="inlineStr"/>
+      <c r="R1004" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1005">
       <c r="A1005" s="2" t="n">
@@ -56745,7 +56749,9 @@
       <c r="Q1005" t="n">
         <v>0</v>
       </c>
-      <c r="R1005" t="inlineStr"/>
+      <c r="R1005" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1006">
       <c r="A1006" s="2" t="n">
@@ -56799,7 +56805,9 @@
       <c r="Q1006" t="n">
         <v>0</v>
       </c>
-      <c r="R1006" t="inlineStr"/>
+      <c r="R1006" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1007">
       <c r="A1007" s="2" t="n">
@@ -56853,7 +56861,279 @@
       <c r="Q1007" t="n">
         <v>0</v>
       </c>
-      <c r="R1007" t="inlineStr"/>
+      <c r="R1007" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>1058</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>1058</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>1027.949951171875</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>1040.349975585938</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>1040.349975585938</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>30309</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1008" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>1011.349975585938</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>1043.400024414062</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>1011.349975585938</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>1030.050048828125</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>1030.050048828125</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>41919</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1009" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>1035.699951171875</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>1018.650024414062</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>1030.050048828125</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>1030.050048828125</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>18578</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1010" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>1038</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>1039.75</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>1027.849975585938</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>1030.550048828125</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>1030.550048828125</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>18477</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1011" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>1030.550048828125</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>1041.099975585938</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>999.5999755859375</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>1017.650024414062</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>1017.650024414062</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>43997</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1012" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1012" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1012"/>
+  <dimension ref="A1:R1017"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56741,7 +56741,7 @@
         <v>35</v>
       </c>
       <c r="O1005" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1005" t="n">
         <v>0</v>
@@ -56917,7 +56917,9 @@
       <c r="Q1008" t="n">
         <v>0</v>
       </c>
-      <c r="R1008" t="inlineStr"/>
+      <c r="R1008" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1009">
       <c r="A1009" s="2" t="n">
@@ -56971,7 +56973,9 @@
       <c r="Q1009" t="n">
         <v>0</v>
       </c>
-      <c r="R1009" t="inlineStr"/>
+      <c r="R1009" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1010">
       <c r="A1010" s="2" t="n">
@@ -57025,7 +57029,9 @@
       <c r="Q1010" t="n">
         <v>0</v>
       </c>
-      <c r="R1010" t="inlineStr"/>
+      <c r="R1010" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1011">
       <c r="A1011" s="2" t="n">
@@ -57079,7 +57085,9 @@
       <c r="Q1011" t="n">
         <v>0</v>
       </c>
-      <c r="R1011" t="inlineStr"/>
+      <c r="R1011" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1012">
       <c r="A1012" s="2" t="n">
@@ -57133,7 +57141,279 @@
       <c r="Q1012" t="n">
         <v>0</v>
       </c>
-      <c r="R1012" t="inlineStr"/>
+      <c r="R1012" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>1033</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>1033</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>1011.299987792969</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>1023.349975585938</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>1023.349975585938</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>30242</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1013" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>1037</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>1037</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>1019</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>1025</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>1025</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>20013</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1014" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1014" t="inlineStr"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>1034.5</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>1034.5</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>1019.349975585938</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>1025.099975585938</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>1025.099975585938</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>13530</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1015" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>1039.949951171875</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>1039.949951171875</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>1011</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>1020.25</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>1020.25</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>37575</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1016" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1016" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>1038.199951171875</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>1022.150024414062</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>1026.949951171875</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>1026.949951171875</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>21026</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1017" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1017" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1017"/>
+  <dimension ref="A1:R1022"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57133,7 +57133,7 @@
         <v>36</v>
       </c>
       <c r="O1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1012" t="n">
         <v>0</v>
@@ -57197,7 +57197,9 @@
       <c r="Q1013" t="n">
         <v>0</v>
       </c>
-      <c r="R1013" t="inlineStr"/>
+      <c r="R1013" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1014">
       <c r="A1014" s="2" t="n">
@@ -57251,7 +57253,9 @@
       <c r="Q1014" t="n">
         <v>0</v>
       </c>
-      <c r="R1014" t="inlineStr"/>
+      <c r="R1014" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1015">
       <c r="A1015" s="2" t="n">
@@ -57305,7 +57309,9 @@
       <c r="Q1015" t="n">
         <v>0</v>
       </c>
-      <c r="R1015" t="inlineStr"/>
+      <c r="R1015" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1016">
       <c r="A1016" s="2" t="n">
@@ -57359,7 +57365,9 @@
       <c r="Q1016" t="n">
         <v>0</v>
       </c>
-      <c r="R1016" t="inlineStr"/>
+      <c r="R1016" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1017">
       <c r="A1017" s="2" t="n">
@@ -57413,7 +57421,279 @@
       <c r="Q1017" t="n">
         <v>0</v>
       </c>
-      <c r="R1017" t="inlineStr"/>
+      <c r="R1017" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>1032.900024414062</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>1053.949951171875</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>1023.599975585938</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>1034.5</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>1034.5</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>31537</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1018" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>1035.5</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>1042.650024414062</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>1021.099975585938</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>1039.650024414062</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>1039.650024414062</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>19816</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1019" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>1044</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>1046.75</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>1006.950012207031</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>1026.699951171875</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>1026.699951171875</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>37184</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1020" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>1033.650024414062</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>999.9500122070312</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>1017.849975585938</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>1017.849975585938</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>34974</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1021" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>1034.949951171875</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>1042.150024414062</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>1017.849975585938</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>1029.699951171875</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>1029.699951171875</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>20217</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1022" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1022" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1022"/>
+  <dimension ref="A1:R1027"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57477,7 +57477,9 @@
       <c r="Q1018" t="n">
         <v>0</v>
       </c>
-      <c r="R1018" t="inlineStr"/>
+      <c r="R1018" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1019">
       <c r="A1019" s="2" t="n">
@@ -57531,7 +57533,9 @@
       <c r="Q1019" t="n">
         <v>0</v>
       </c>
-      <c r="R1019" t="inlineStr"/>
+      <c r="R1019" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1020">
       <c r="A1020" s="2" t="n">
@@ -57585,7 +57589,9 @@
       <c r="Q1020" t="n">
         <v>0</v>
       </c>
-      <c r="R1020" t="inlineStr"/>
+      <c r="R1020" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
@@ -57639,7 +57645,9 @@
       <c r="Q1021" t="n">
         <v>0</v>
       </c>
-      <c r="R1021" t="inlineStr"/>
+      <c r="R1021" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1022">
       <c r="A1022" s="2" t="n">
@@ -57693,7 +57701,279 @@
       <c r="Q1022" t="n">
         <v>0</v>
       </c>
-      <c r="R1022" t="inlineStr"/>
+      <c r="R1022" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>1036.800048828125</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>1036.800048828125</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>1021.75</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>1026</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>1026</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>17472</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1023" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1023" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>1030.050048828125</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>1030.050048828125</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>1021</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>1022.599975585938</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>1022.599975585938</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>11544</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1024" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>1022.599975585938</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>1034.400024414062</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>1011.799987792969</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>1017.400024414062</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>1017.400024414062</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>24691</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1025" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>1015.5</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>1020</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>1013.049987792969</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>1015.150024414062</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>1015.150024414062</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>13536</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1026" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>1022.799987792969</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>1032</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>1017</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>1027.699951171875</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>1027.699951171875</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>21040</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1027" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1027" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1027"/>
+  <dimension ref="A1:R1031"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -57757,7 +57757,9 @@
       <c r="Q1023" t="n">
         <v>0</v>
       </c>
-      <c r="R1023" t="inlineStr"/>
+      <c r="R1023" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1024">
       <c r="A1024" s="2" t="n">
@@ -57811,7 +57813,9 @@
       <c r="Q1024" t="n">
         <v>0</v>
       </c>
-      <c r="R1024" t="inlineStr"/>
+      <c r="R1024" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1025">
       <c r="A1025" s="2" t="n">
@@ -57865,7 +57869,9 @@
       <c r="Q1025" t="n">
         <v>0</v>
       </c>
-      <c r="R1025" t="inlineStr"/>
+      <c r="R1025" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
@@ -57919,7 +57925,9 @@
       <c r="Q1026" t="n">
         <v>0</v>
       </c>
-      <c r="R1026" t="inlineStr"/>
+      <c r="R1026" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
@@ -57973,7 +57981,225 @@
       <c r="Q1027" t="n">
         <v>0</v>
       </c>
-      <c r="R1027" t="inlineStr"/>
+      <c r="R1027" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>1033.900024414062</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>1017</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>1027.150024414062</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>1027.150024414062</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>14600</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1028" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>1027.150024414062</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>1044.900024414062</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>1022.549987792969</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>1031.349975585938</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>1031.349975585938</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>27678</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1029" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>1031</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>1031</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>1001.049987792969</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>1014.799987792969</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>1014.799987792969</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>25365</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1030" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>1012.950012207031</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>1017.200012207031</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>1017.200012207031</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>23165</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1031" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1031" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1031"/>
+  <dimension ref="A1:R1036"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58037,7 +58037,9 @@
       <c r="Q1028" t="n">
         <v>0</v>
       </c>
-      <c r="R1028" t="inlineStr"/>
+      <c r="R1028" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
@@ -58091,7 +58093,9 @@
       <c r="Q1029" t="n">
         <v>0</v>
       </c>
-      <c r="R1029" t="inlineStr"/>
+      <c r="R1029" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1030">
       <c r="A1030" s="2" t="n">
@@ -58145,7 +58149,9 @@
       <c r="Q1030" t="n">
         <v>0</v>
       </c>
-      <c r="R1030" t="inlineStr"/>
+      <c r="R1030" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1031">
       <c r="A1031" s="2" t="n">
@@ -58199,7 +58205,279 @@
       <c r="Q1031" t="n">
         <v>0</v>
       </c>
-      <c r="R1031" t="inlineStr"/>
+      <c r="R1031" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>1021.650024414062</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>1007.75</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>1007.75</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>26546</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1032" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>1016.950012207031</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>1001.099975585938</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>1013.299987792969</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>1013.299987792969</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>18266</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1033" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>1024.949951171875</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>1007.049987792969</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>1012.650024414062</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>1012.650024414062</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>22939</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1034" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>1021.5</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>1021.5</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>1013</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>1013.549987792969</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>1013.549987792969</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>12118</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1035" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>1021.950012207031</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>1008.75</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>1016.299987792969</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>1016.299987792969</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>24132</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1036" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1036" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1036"/>
+  <dimension ref="A1:R1041"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -58261,7 +58261,9 @@
       <c r="Q1032" t="n">
         <v>0</v>
       </c>
-      <c r="R1032" t="inlineStr"/>
+      <c r="R1032" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
@@ -58315,7 +58317,9 @@
       <c r="Q1033" t="n">
         <v>0</v>
       </c>
-      <c r="R1033" t="inlineStr"/>
+      <c r="R1033" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1034">
       <c r="A1034" s="2" t="n">
@@ -58369,7 +58373,9 @@
       <c r="Q1034" t="n">
         <v>0</v>
       </c>
-      <c r="R1034" t="inlineStr"/>
+      <c r="R1034" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
@@ -58423,7 +58429,9 @@
       <c r="Q1035" t="n">
         <v>0</v>
       </c>
-      <c r="R1035" t="inlineStr"/>
+      <c r="R1035" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
@@ -58477,7 +58485,279 @@
       <c r="Q1036" t="n">
         <v>0</v>
       </c>
-      <c r="R1036" t="inlineStr"/>
+      <c r="R1036" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>1024.949951171875</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>1024.949951171875</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>1010.049987792969</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>1014.5</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>1014.5</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>15059</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1037" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1037" t="inlineStr"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>1023.5</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>1031.699951171875</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>1013</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>1019.700012207031</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>1019.700012207031</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>14721</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1038" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1038" t="inlineStr"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>1024.900024414062</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>1065.900024414062</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>1017.599975585938</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>1040.300048828125</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>1040.300048828125</v>
+      </c>
+      <c r="G1039" t="n">
+        <v>31973</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1039" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1039" t="inlineStr"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>1056.050048828125</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>1059.900024414062</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>1024.5</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>1028.599975585938</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>1028.599975585938</v>
+      </c>
+      <c r="G1040" t="n">
+        <v>21700</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1040" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1040" t="inlineStr"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>1034</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>1044.400024414062</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>1008</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>1021.049987792969</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>1021.049987792969</v>
+      </c>
+      <c r="G1041" t="n">
+        <v>20527</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1041" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1041" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1041"/>
+  <dimension ref="A1:R1046"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58541,7 +58541,9 @@
       <c r="Q1037" t="n">
         <v>0</v>
       </c>
-      <c r="R1037" t="inlineStr"/>
+      <c r="R1037" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1038">
       <c r="A1038" s="2" t="n">
@@ -58595,7 +58597,9 @@
       <c r="Q1038" t="n">
         <v>0</v>
       </c>
-      <c r="R1038" t="inlineStr"/>
+      <c r="R1038" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1039">
       <c r="A1039" s="2" t="n">
@@ -58649,7 +58653,9 @@
       <c r="Q1039" t="n">
         <v>0</v>
       </c>
-      <c r="R1039" t="inlineStr"/>
+      <c r="R1039" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
@@ -58703,7 +58709,9 @@
       <c r="Q1040" t="n">
         <v>0</v>
       </c>
-      <c r="R1040" t="inlineStr"/>
+      <c r="R1040" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1041">
       <c r="A1041" s="2" t="n">
@@ -58757,7 +58765,279 @@
       <c r="Q1041" t="n">
         <v>0</v>
       </c>
-      <c r="R1041" t="inlineStr"/>
+      <c r="R1041" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>1031.199951171875</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>1031.25</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>980</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>984.7000122070312</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>984.7000122070312</v>
+      </c>
+      <c r="G1042" t="n">
+        <v>63840</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1042" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>980</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>1030.800048828125</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>950</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>1013.299987792969</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>1013.299987792969</v>
+      </c>
+      <c r="G1043" t="n">
+        <v>107642</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1043" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1043" t="inlineStr"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>1014.950012207031</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>1021</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>981</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>991.5999755859375</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>991.5999755859375</v>
+      </c>
+      <c r="G1044" t="n">
+        <v>31182</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1044" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1044" t="inlineStr"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>994</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>995</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>962</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>966.1500244140625</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>966.1500244140625</v>
+      </c>
+      <c r="G1045" t="n">
+        <v>24030</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1045" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1045" t="inlineStr"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>973.25</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>984.1500244140625</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>940</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>966.8499755859375</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>966.8499755859375</v>
+      </c>
+      <c r="G1046" t="n">
+        <v>52033</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1046" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1046" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1046"/>
+  <dimension ref="A1:R1051"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58645,7 +58645,7 @@
         <v>42</v>
       </c>
       <c r="O1039" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1039" t="n">
         <v>0</v>
@@ -58821,7 +58821,9 @@
       <c r="Q1042" t="n">
         <v>0</v>
       </c>
-      <c r="R1042" t="inlineStr"/>
+      <c r="R1042" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
@@ -58875,7 +58877,9 @@
       <c r="Q1043" t="n">
         <v>0</v>
       </c>
-      <c r="R1043" t="inlineStr"/>
+      <c r="R1043" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1044">
       <c r="A1044" s="2" t="n">
@@ -58929,7 +58933,9 @@
       <c r="Q1044" t="n">
         <v>0</v>
       </c>
-      <c r="R1044" t="inlineStr"/>
+      <c r="R1044" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1045">
       <c r="A1045" s="2" t="n">
@@ -58983,7 +58989,9 @@
       <c r="Q1045" t="n">
         <v>0</v>
       </c>
-      <c r="R1045" t="inlineStr"/>
+      <c r="R1045" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1046">
       <c r="A1046" s="2" t="n">
@@ -59037,7 +59045,279 @@
       <c r="Q1046" t="n">
         <v>0</v>
       </c>
-      <c r="R1046" t="inlineStr"/>
+      <c r="R1046" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>966.8499755859375</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>971.2999877929688</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>942</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>954.7999877929688</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>954.7999877929688</v>
+      </c>
+      <c r="G1047" t="n">
+        <v>33668</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1047" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1047" t="inlineStr"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>961.75</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>961.75</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>945</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>950.2000122070312</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>950.2000122070312</v>
+      </c>
+      <c r="G1048" t="n">
+        <v>16082</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1048" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1048" t="inlineStr"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>950.2000122070312</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>961.4500122070312</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>948.5499877929688</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>955.9000244140625</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>955.9000244140625</v>
+      </c>
+      <c r="G1049" t="n">
+        <v>22103</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1049" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1049" t="inlineStr"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>955.9500122070312</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>970</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>945.5999755859375</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>952.0499877929688</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>952.0499877929688</v>
+      </c>
+      <c r="G1050" t="n">
+        <v>19570</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1050" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1050" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1050" t="inlineStr"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>971</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>974</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>953.7999877929688</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>974</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>974</v>
+      </c>
+      <c r="G1051" t="n">
+        <v>8554</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1051" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1051" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1051"/>
+  <dimension ref="A1:R1056"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59037,7 +59037,7 @@
         <v>43</v>
       </c>
       <c r="O1046" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1046" t="n">
         <v>0</v>
@@ -59101,7 +59101,9 @@
       <c r="Q1047" t="n">
         <v>0</v>
       </c>
-      <c r="R1047" t="inlineStr"/>
+      <c r="R1047" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1048">
       <c r="A1048" s="2" t="n">
@@ -59155,7 +59157,9 @@
       <c r="Q1048" t="n">
         <v>0</v>
       </c>
-      <c r="R1048" t="inlineStr"/>
+      <c r="R1048" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1049">
       <c r="A1049" s="2" t="n">
@@ -59209,7 +59213,9 @@
       <c r="Q1049" t="n">
         <v>0</v>
       </c>
-      <c r="R1049" t="inlineStr"/>
+      <c r="R1049" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
@@ -59263,7 +59269,9 @@
       <c r="Q1050" t="n">
         <v>0</v>
       </c>
-      <c r="R1050" t="inlineStr"/>
+      <c r="R1050" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1051">
       <c r="A1051" s="2" t="n">
@@ -59317,7 +59325,279 @@
       <c r="Q1051" t="n">
         <v>0</v>
       </c>
-      <c r="R1051" t="inlineStr"/>
+      <c r="R1051" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>980</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>987.8499755859375</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>952.2999877929688</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>975.9500122070312</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>975.9500122070312</v>
+      </c>
+      <c r="G1052" t="n">
+        <v>21052</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1052" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1052" t="inlineStr"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>993.4500122070312</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>993.4500122070312</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>966.0999755859375</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>970.5999755859375</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>970.5999755859375</v>
+      </c>
+      <c r="G1053" t="n">
+        <v>19556</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1053" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1053" t="inlineStr"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>979</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>995</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>967.0499877929688</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>991.2000122070312</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>991.2000122070312</v>
+      </c>
+      <c r="G1054" t="n">
+        <v>25626</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1054" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1054" t="inlineStr"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>996.9500122070312</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>1010</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>985</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>992.5</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>992.5</v>
+      </c>
+      <c r="G1055" t="n">
+        <v>16180</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1055" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>995</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>996.3499755859375</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>984.8499755859375</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>986.9500122070312</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>986.9500122070312</v>
+      </c>
+      <c r="G1056" t="n">
+        <v>6975</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1056" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1056" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1056"/>
+  <dimension ref="A1:R1060"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -59381,7 +59381,9 @@
       <c r="Q1052" t="n">
         <v>0</v>
       </c>
-      <c r="R1052" t="inlineStr"/>
+      <c r="R1052" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1053">
       <c r="A1053" s="2" t="n">
@@ -59435,7 +59437,9 @@
       <c r="Q1053" t="n">
         <v>0</v>
       </c>
-      <c r="R1053" t="inlineStr"/>
+      <c r="R1053" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1054">
       <c r="A1054" s="2" t="n">
@@ -59489,7 +59493,9 @@
       <c r="Q1054" t="n">
         <v>0</v>
       </c>
-      <c r="R1054" t="inlineStr"/>
+      <c r="R1054" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1055">
       <c r="A1055" s="2" t="n">
@@ -59543,7 +59549,9 @@
       <c r="Q1055" t="n">
         <v>0</v>
       </c>
-      <c r="R1055" t="inlineStr"/>
+      <c r="R1055" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1056">
       <c r="A1056" s="2" t="n">
@@ -59597,7 +59605,225 @@
       <c r="Q1056" t="n">
         <v>0</v>
       </c>
-      <c r="R1056" t="inlineStr"/>
+      <c r="R1056" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>991.5</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>1004.799987792969</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>981.0499877929688</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>994.1500244140625</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>994.1500244140625</v>
+      </c>
+      <c r="G1057" t="n">
+        <v>21471</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1057" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1057" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1057" t="inlineStr"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>1013.049987792969</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>981</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>995.0999755859375</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>995.0999755859375</v>
+      </c>
+      <c r="G1058" t="n">
+        <v>17755</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1058" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1058" t="inlineStr"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>999.0499877929688</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>1004.349975585938</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>951.0999755859375</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>966</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>966</v>
+      </c>
+      <c r="G1059" t="n">
+        <v>27671</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1059" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1059" t="inlineStr"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>966</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>976.9500122070312</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>951.0999755859375</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>959</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>959</v>
+      </c>
+      <c r="G1060" t="n">
+        <v>14983</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1060" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1060" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1060"/>
+  <dimension ref="A1:R1064"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59661,7 +59661,9 @@
       <c r="Q1057" t="n">
         <v>0</v>
       </c>
-      <c r="R1057" t="inlineStr"/>
+      <c r="R1057" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1058">
       <c r="A1058" s="2" t="n">
@@ -59715,7 +59717,9 @@
       <c r="Q1058" t="n">
         <v>0</v>
       </c>
-      <c r="R1058" t="inlineStr"/>
+      <c r="R1058" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1059">
       <c r="A1059" s="2" t="n">
@@ -59769,7 +59773,9 @@
       <c r="Q1059" t="n">
         <v>0</v>
       </c>
-      <c r="R1059" t="inlineStr"/>
+      <c r="R1059" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1060">
       <c r="A1060" s="2" t="n">
@@ -59823,7 +59829,225 @@
       <c r="Q1060" t="n">
         <v>0</v>
       </c>
-      <c r="R1060" t="inlineStr"/>
+      <c r="R1060" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>971</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>971</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>944.0499877929688</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>953.2999877929688</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>953.2999877929688</v>
+      </c>
+      <c r="G1061" t="n">
+        <v>16381</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1061" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1061" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1061" t="inlineStr"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>961.5</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>990</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>948</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>972.1500244140625</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>972.1500244140625</v>
+      </c>
+      <c r="G1062" t="n">
+        <v>16380</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1062" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1062" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1062" t="inlineStr"/>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>975</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>975</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>947.5499877929688</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>955.0499877929688</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>955.0499877929688</v>
+      </c>
+      <c r="G1063" t="n">
+        <v>10694</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1063" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1063" t="inlineStr"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>957.8499755859375</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>962.5499877929688</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>944.2000122070312</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>950.5999755859375</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>950.5999755859375</v>
+      </c>
+      <c r="G1064" t="n">
+        <v>10516</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1064" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1064" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1064" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1064"/>
+  <dimension ref="A1:R1069"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59885,7 +59885,9 @@
       <c r="Q1061" t="n">
         <v>0</v>
       </c>
-      <c r="R1061" t="inlineStr"/>
+      <c r="R1061" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1062">
       <c r="A1062" s="2" t="n">
@@ -59939,7 +59941,9 @@
       <c r="Q1062" t="n">
         <v>0</v>
       </c>
-      <c r="R1062" t="inlineStr"/>
+      <c r="R1062" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1063">
       <c r="A1063" s="2" t="n">
@@ -59993,7 +59997,9 @@
       <c r="Q1063" t="n">
         <v>0</v>
       </c>
-      <c r="R1063" t="inlineStr"/>
+      <c r="R1063" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1064">
       <c r="A1064" s="2" t="n">
@@ -60047,7 +60053,279 @@
       <c r="Q1064" t="n">
         <v>0</v>
       </c>
-      <c r="R1064" t="inlineStr"/>
+      <c r="R1064" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>969</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>969.9500122070312</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>950.5999755859375</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>963.2999877929688</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>963.2999877929688</v>
+      </c>
+      <c r="G1065" t="n">
+        <v>15341</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1065" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1065" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1065" t="inlineStr"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>966.0499877929688</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>985</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>955.0499877929688</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>970.5499877929688</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>970.5499877929688</v>
+      </c>
+      <c r="G1066" t="n">
+        <v>12691</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1066" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1066" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1066" t="inlineStr"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>970</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>1015</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>965.5</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>1009</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>1009</v>
+      </c>
+      <c r="G1067" t="n">
+        <v>22613</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1067" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1067" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1067" t="inlineStr"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>1018.799987792969</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>1018.799987792969</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>995</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>1006.849975585938</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>1006.849975585938</v>
+      </c>
+      <c r="G1068" t="n">
+        <v>19066</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1068" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1068" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1068" t="inlineStr"/>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>1006.849975585938</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>1013.950012207031</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>971.4000244140625</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>987.3499755859375</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>987.3499755859375</v>
+      </c>
+      <c r="G1069" t="n">
+        <v>18928</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1069" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1069" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1069" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1069"/>
+  <dimension ref="A1:R1074"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -59877,7 +59877,7 @@
         <v>47</v>
       </c>
       <c r="O1061" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1061" t="n">
         <v>0</v>
@@ -60109,7 +60109,9 @@
       <c r="Q1065" t="n">
         <v>0</v>
       </c>
-      <c r="R1065" t="inlineStr"/>
+      <c r="R1065" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1066">
       <c r="A1066" s="2" t="n">
@@ -60163,7 +60165,9 @@
       <c r="Q1066" t="n">
         <v>0</v>
       </c>
-      <c r="R1066" t="inlineStr"/>
+      <c r="R1066" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1067">
       <c r="A1067" s="2" t="n">
@@ -60217,7 +60221,9 @@
       <c r="Q1067" t="n">
         <v>0</v>
       </c>
-      <c r="R1067" t="inlineStr"/>
+      <c r="R1067" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1068">
       <c r="A1068" s="2" t="n">
@@ -60271,7 +60277,9 @@
       <c r="Q1068" t="n">
         <v>0</v>
       </c>
-      <c r="R1068" t="inlineStr"/>
+      <c r="R1068" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1069">
       <c r="A1069" s="2" t="n">
@@ -60325,7 +60333,279 @@
       <c r="Q1069" t="n">
         <v>0</v>
       </c>
-      <c r="R1069" t="inlineStr"/>
+      <c r="R1069" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>987.0499877929688</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>987.3499755859375</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>971.0999755859375</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>977.75</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>977.75</v>
+      </c>
+      <c r="G1070" t="n">
+        <v>23146</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1070" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1070" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1070" t="inlineStr"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>977.75</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>977.75</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>993.8499755859375</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>993.8499755859375</v>
+      </c>
+      <c r="G1071" t="n">
+        <v>19650</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1071" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1071" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1071" t="inlineStr"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>993.8499755859375</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>1020</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>990</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>1001.549987792969</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>1001.549987792969</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>25253</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1072" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1072" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1072" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1072" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1072" t="inlineStr"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>1011.549987792969</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>1011.549987792969</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>971.5</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>979.4500122070312</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>979.4500122070312</v>
+      </c>
+      <c r="G1073" t="n">
+        <v>25522</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1073" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1073" t="inlineStr"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>989.25</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>999.9500122070312</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>983.1500244140625</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>989.25</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>989.25</v>
+      </c>
+      <c r="G1074" t="n">
+        <v>14176</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1074" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1074" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1074"/>
+  <dimension ref="A1:R1084"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -60389,7 +60389,9 @@
       <c r="Q1070" t="n">
         <v>0</v>
       </c>
-      <c r="R1070" t="inlineStr"/>
+      <c r="R1070" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1071">
       <c r="A1071" s="2" t="n">
@@ -60443,7 +60445,9 @@
       <c r="Q1071" t="n">
         <v>0</v>
       </c>
-      <c r="R1071" t="inlineStr"/>
+      <c r="R1071" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1072">
       <c r="A1072" s="2" t="n">
@@ -60497,7 +60501,9 @@
       <c r="Q1072" t="n">
         <v>1</v>
       </c>
-      <c r="R1072" t="inlineStr"/>
+      <c r="R1072" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1073">
       <c r="A1073" s="2" t="n">
@@ -60551,7 +60557,9 @@
       <c r="Q1073" t="n">
         <v>0</v>
       </c>
-      <c r="R1073" t="inlineStr"/>
+      <c r="R1073" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1074">
       <c r="A1074" s="2" t="n">
@@ -60605,7 +60613,529 @@
       <c r="Q1074" t="n">
         <v>0</v>
       </c>
-      <c r="R1074" t="inlineStr"/>
+      <c r="R1074" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>974</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>977.75</v>
+      </c>
+      <c r="F1075" t="inlineStr"/>
+      <c r="G1075" t="n">
+        <v>25449</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1075" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1075" t="inlineStr"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>989.75</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>989.75</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>967</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>976.7000122070312</v>
+      </c>
+      <c r="F1076" t="inlineStr"/>
+      <c r="G1076" t="n">
+        <v>13910</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1076" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1076" t="inlineStr"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>983</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>983</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>963.9000244140625</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>967.6500244140625</v>
+      </c>
+      <c r="F1077" t="inlineStr"/>
+      <c r="G1077" t="n">
+        <v>28367</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1077" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1077" t="inlineStr"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>989.9500122070312</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>1071.349975585938</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>987.0999755859375</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>1013.200012207031</v>
+      </c>
+      <c r="F1078" t="inlineStr"/>
+      <c r="G1078" t="n">
+        <v>261898</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1078" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1078" t="inlineStr"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>1046.900024414062</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>1016.349975585938</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>1033.300048828125</v>
+      </c>
+      <c r="F1079" t="inlineStr"/>
+      <c r="G1079" t="n">
+        <v>95304</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1079" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1079" t="inlineStr"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>1045</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>1064</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>1022.049987792969</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>1034.75</v>
+      </c>
+      <c r="F1080" t="inlineStr"/>
+      <c r="G1080" t="n">
+        <v>80978</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1080" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1080" t="inlineStr"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>1011</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>1024.099975585938</v>
+      </c>
+      <c r="F1081" t="inlineStr"/>
+      <c r="G1081" t="n">
+        <v>44559</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1081" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1081" t="inlineStr"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>1032.949951171875</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>1032.949951171875</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>998.5</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>1003.75</v>
+      </c>
+      <c r="F1082" t="inlineStr"/>
+      <c r="G1082" t="n">
+        <v>33224</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1082" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1082" t="inlineStr"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>980.0499877929688</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>1023.400024414062</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>980</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>1011.75</v>
+      </c>
+      <c r="F1083" t="inlineStr"/>
+      <c r="G1083" t="n">
+        <v>29716</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1083" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1083" t="inlineStr"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>1026.900024414062</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>1026.900024414062</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>1004.599975585938</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>1010.700012207031</v>
+      </c>
+      <c r="F1084" t="inlineStr"/>
+      <c r="G1084" t="n">
+        <v>37610</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1084" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1084" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1084" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1084"/>
+  <dimension ref="A1:R1088"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60667,7 +60667,9 @@
       <c r="Q1075" t="n">
         <v>0</v>
       </c>
-      <c r="R1075" t="inlineStr"/>
+      <c r="R1075" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1076">
       <c r="A1076" s="2" t="n">
@@ -60719,7 +60721,9 @@
       <c r="Q1076" t="n">
         <v>0</v>
       </c>
-      <c r="R1076" t="inlineStr"/>
+      <c r="R1076" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1077">
       <c r="A1077" s="2" t="n">
@@ -60771,7 +60775,9 @@
       <c r="Q1077" t="n">
         <v>0</v>
       </c>
-      <c r="R1077" t="inlineStr"/>
+      <c r="R1077" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1078">
       <c r="A1078" s="2" t="n">
@@ -60815,7 +60821,7 @@
         <v>50</v>
       </c>
       <c r="O1078" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1078" t="n">
         <v>0</v>
@@ -60823,7 +60829,9 @@
       <c r="Q1078" t="n">
         <v>0</v>
       </c>
-      <c r="R1078" t="inlineStr"/>
+      <c r="R1078" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1079">
       <c r="A1079" s="2" t="n">
@@ -60875,7 +60883,9 @@
       <c r="Q1079" t="n">
         <v>0</v>
       </c>
-      <c r="R1079" t="inlineStr"/>
+      <c r="R1079" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1080">
       <c r="A1080" s="2" t="n">
@@ -60927,7 +60937,9 @@
       <c r="Q1080" t="n">
         <v>0</v>
       </c>
-      <c r="R1080" t="inlineStr"/>
+      <c r="R1080" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1081">
       <c r="A1081" s="2" t="n">
@@ -60979,7 +60991,9 @@
       <c r="Q1081" t="n">
         <v>0</v>
       </c>
-      <c r="R1081" t="inlineStr"/>
+      <c r="R1081" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1082">
       <c r="A1082" s="2" t="n">
@@ -61031,7 +61045,9 @@
       <c r="Q1082" t="n">
         <v>0</v>
       </c>
-      <c r="R1082" t="inlineStr"/>
+      <c r="R1082" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1083">
       <c r="A1083" s="2" t="n">
@@ -61083,7 +61099,9 @@
       <c r="Q1083" t="n">
         <v>0</v>
       </c>
-      <c r="R1083" t="inlineStr"/>
+      <c r="R1083" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1084">
       <c r="A1084" s="2" t="n">
@@ -61135,7 +61153,217 @@
       <c r="Q1084" t="n">
         <v>0</v>
       </c>
-      <c r="R1084" t="inlineStr"/>
+      <c r="R1084" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>995</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>1008</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>950.2999877929688</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>970.7999877929688</v>
+      </c>
+      <c r="F1085" t="inlineStr"/>
+      <c r="G1085" t="n">
+        <v>37507</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1085" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1085" t="inlineStr"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>985</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>989.75</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>968</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>972.4500122070312</v>
+      </c>
+      <c r="F1086" t="inlineStr"/>
+      <c r="G1086" t="n">
+        <v>11910</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1086" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1086" t="inlineStr"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>995.7999877929688</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>995.7999877929688</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>956.9500122070312</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>966.0499877929688</v>
+      </c>
+      <c r="F1087" t="inlineStr"/>
+      <c r="G1087" t="n">
+        <v>22289</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1087" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1087" t="inlineStr"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>979.9500122070312</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>982</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>964.0499877929688</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>971.75</v>
+      </c>
+      <c r="F1088" t="inlineStr"/>
+      <c r="G1088" t="n">
+        <v>12186</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1088" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1088" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1088" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1088"/>
+  <dimension ref="A1:R1093"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61207,7 +61207,9 @@
       <c r="Q1085" t="n">
         <v>0</v>
       </c>
-      <c r="R1085" t="inlineStr"/>
+      <c r="R1085" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1086">
       <c r="A1086" s="2" t="n">
@@ -61259,7 +61261,9 @@
       <c r="Q1086" t="n">
         <v>0</v>
       </c>
-      <c r="R1086" t="inlineStr"/>
+      <c r="R1086" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1087">
       <c r="A1087" s="2" t="n">
@@ -61311,7 +61315,9 @@
       <c r="Q1087" t="n">
         <v>0</v>
       </c>
-      <c r="R1087" t="inlineStr"/>
+      <c r="R1087" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1088">
       <c r="A1088" s="2" t="n">
@@ -61363,7 +61369,269 @@
       <c r="Q1088" t="n">
         <v>0</v>
       </c>
-      <c r="R1088" t="inlineStr"/>
+      <c r="R1088" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>978</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>979.5499877929688</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>962</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>969</v>
+      </c>
+      <c r="F1089" t="inlineStr"/>
+      <c r="G1089" t="n">
+        <v>11942</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1089" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1089" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1089" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1089" t="inlineStr"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>974</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>974</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>957</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>963.7999877929688</v>
+      </c>
+      <c r="F1090" t="inlineStr"/>
+      <c r="G1090" t="n">
+        <v>11894</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1090" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1090" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1090" t="inlineStr"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>978</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>978</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>963</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>967.3499755859375</v>
+      </c>
+      <c r="F1091" t="inlineStr"/>
+      <c r="G1091" t="n">
+        <v>17748</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1091" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1091" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1091" t="inlineStr"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>971.7000122070312</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>1012.700012207031</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>954.0999755859375</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>998.25</v>
+      </c>
+      <c r="F1092" t="inlineStr"/>
+      <c r="G1092" t="n">
+        <v>34465</v>
+      </c>
+      <c r="H1092" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1092" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1092" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1092" t="inlineStr"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>999</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>1012.049987792969</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>982.7999877929688</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>995.3499755859375</v>
+      </c>
+      <c r="F1093" t="inlineStr"/>
+      <c r="G1093" t="n">
+        <v>26114</v>
+      </c>
+      <c r="H1093" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1093" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1093" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1093" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1093"/>
+  <dimension ref="A1:R1098"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61423,7 +61423,9 @@
       <c r="Q1089" t="n">
         <v>2</v>
       </c>
-      <c r="R1089" t="inlineStr"/>
+      <c r="R1089" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1090">
       <c r="A1090" s="2" t="n">
@@ -61475,7 +61477,9 @@
       <c r="Q1090" t="n">
         <v>0</v>
       </c>
-      <c r="R1090" t="inlineStr"/>
+      <c r="R1090" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1091">
       <c r="A1091" s="2" t="n">
@@ -61527,7 +61531,9 @@
       <c r="Q1091" t="n">
         <v>0</v>
       </c>
-      <c r="R1091" t="inlineStr"/>
+      <c r="R1091" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1092">
       <c r="A1092" s="2" t="n">
@@ -61579,7 +61585,9 @@
       <c r="Q1092" t="n">
         <v>0</v>
       </c>
-      <c r="R1092" t="inlineStr"/>
+      <c r="R1092" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1093">
       <c r="A1093" s="2" t="n">
@@ -61631,7 +61639,269 @@
       <c r="Q1093" t="n">
         <v>0</v>
       </c>
-      <c r="R1093" t="inlineStr"/>
+      <c r="R1093" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>1005.299987792969</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>1005.299987792969</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>959.1500244140625</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>962.9000244140625</v>
+      </c>
+      <c r="F1094" t="inlineStr"/>
+      <c r="G1094" t="n">
+        <v>20032</v>
+      </c>
+      <c r="H1094" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1094" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1094" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1094" t="inlineStr"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>969</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>991.2999877929688</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>945</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>960.5499877929688</v>
+      </c>
+      <c r="F1095" t="inlineStr"/>
+      <c r="G1095" t="n">
+        <v>36831</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1095" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1095" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1095" t="inlineStr"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>968</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>968</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>953</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>958.75</v>
+      </c>
+      <c r="F1096" t="inlineStr"/>
+      <c r="G1096" t="n">
+        <v>10439</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1096" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1096" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1096" t="inlineStr"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>973.0999755859375</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>979.9500122070312</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>958</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>970</v>
+      </c>
+      <c r="F1097" t="inlineStr"/>
+      <c r="G1097" t="n">
+        <v>24396</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1097" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1097" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1097" t="inlineStr"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>972.9000244140625</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>972.9000244140625</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>947.7000122070312</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>953.4000244140625</v>
+      </c>
+      <c r="F1098" t="inlineStr"/>
+      <c r="G1098" t="n">
+        <v>16371</v>
+      </c>
+      <c r="H1098" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1098" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1098" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1098" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1098"/>
+  <dimension ref="A1:R1103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61693,7 +61693,9 @@
       <c r="Q1094" t="n">
         <v>0</v>
       </c>
-      <c r="R1094" t="inlineStr"/>
+      <c r="R1094" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1095">
       <c r="A1095" s="2" t="n">
@@ -61745,7 +61747,9 @@
       <c r="Q1095" t="n">
         <v>0</v>
       </c>
-      <c r="R1095" t="inlineStr"/>
+      <c r="R1095" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1096">
       <c r="A1096" s="2" t="n">
@@ -61797,7 +61801,9 @@
       <c r="Q1096" t="n">
         <v>0</v>
       </c>
-      <c r="R1096" t="inlineStr"/>
+      <c r="R1096" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1097">
       <c r="A1097" s="2" t="n">
@@ -61849,7 +61855,9 @@
       <c r="Q1097" t="n">
         <v>0</v>
       </c>
-      <c r="R1097" t="inlineStr"/>
+      <c r="R1097" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1098">
       <c r="A1098" s="2" t="n">
@@ -61901,7 +61909,269 @@
       <c r="Q1098" t="n">
         <v>0</v>
       </c>
-      <c r="R1098" t="inlineStr"/>
+      <c r="R1098" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>950</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>951.7000122070312</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>900</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>916.4500122070312</v>
+      </c>
+      <c r="F1099" t="inlineStr"/>
+      <c r="G1099" t="n">
+        <v>31105</v>
+      </c>
+      <c r="H1099" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1099" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1099" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1099" t="inlineStr"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>919.9000244140625</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>948.9500122070312</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>911.5499877929688</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>935.3499755859375</v>
+      </c>
+      <c r="F1100" t="inlineStr"/>
+      <c r="G1100" t="n">
+        <v>27636</v>
+      </c>
+      <c r="H1100" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1100" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1100" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1100" t="inlineStr"/>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>949.4000244140625</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>969.4000244140625</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>933.0999755859375</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>957.2999877929688</v>
+      </c>
+      <c r="F1101" t="inlineStr"/>
+      <c r="G1101" t="n">
+        <v>16529</v>
+      </c>
+      <c r="H1101" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1101" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1101" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1101" t="inlineStr"/>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>953.0499877929688</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>978.25</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>953.0499877929688</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>971.7999877929688</v>
+      </c>
+      <c r="F1102" t="inlineStr"/>
+      <c r="G1102" t="n">
+        <v>18625</v>
+      </c>
+      <c r="H1102" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1102" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1102" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1102" t="inlineStr"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>972.9500122070312</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>974.5999755859375</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>952</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>967.25</v>
+      </c>
+      <c r="F1103" t="inlineStr"/>
+      <c r="G1103" t="n">
+        <v>13454</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1103" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1103" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1103"/>
+  <dimension ref="A1:R1108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61963,7 +61963,9 @@
       <c r="Q1099" t="n">
         <v>0</v>
       </c>
-      <c r="R1099" t="inlineStr"/>
+      <c r="R1099" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1100">
       <c r="A1100" s="2" t="n">
@@ -62015,7 +62017,9 @@
       <c r="Q1100" t="n">
         <v>0</v>
       </c>
-      <c r="R1100" t="inlineStr"/>
+      <c r="R1100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1101">
       <c r="A1101" s="2" t="n">
@@ -62067,7 +62071,9 @@
       <c r="Q1101" t="n">
         <v>0</v>
       </c>
-      <c r="R1101" t="inlineStr"/>
+      <c r="R1101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1102">
       <c r="A1102" s="2" t="n">
@@ -62119,7 +62125,9 @@
       <c r="Q1102" t="n">
         <v>0</v>
       </c>
-      <c r="R1102" t="inlineStr"/>
+      <c r="R1102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1103">
       <c r="A1103" s="2" t="n">
@@ -62171,7 +62179,269 @@
       <c r="Q1103" t="n">
         <v>0</v>
       </c>
-      <c r="R1103" t="inlineStr"/>
+      <c r="R1103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>1015.599975585938</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>1072.699951171875</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>981</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>1000.599975585938</v>
+      </c>
+      <c r="F1104" t="inlineStr"/>
+      <c r="G1104" t="n">
+        <v>201068</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1104" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1104" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1104" t="inlineStr"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>1017.799987792969</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>981.5</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>984.6500244140625</v>
+      </c>
+      <c r="F1105" t="inlineStr"/>
+      <c r="G1105" t="n">
+        <v>31412</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1105" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1105" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1105" t="inlineStr"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>994.5</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>1035</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>984.6500244140625</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>1025.75</v>
+      </c>
+      <c r="F1106" t="inlineStr"/>
+      <c r="G1106" t="n">
+        <v>128470</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1106" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1106" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1106" t="inlineStr"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>1030.800048828125</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>1045</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>1012.5</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>1017.200012207031</v>
+      </c>
+      <c r="F1107" t="inlineStr"/>
+      <c r="G1107" t="n">
+        <v>47158</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1107" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1107" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1107" t="inlineStr"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>1032.150024414062</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>1032.150024414062</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>972.0499877929688</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>1002.700012207031</v>
+      </c>
+      <c r="F1108" t="inlineStr"/>
+      <c r="G1108" t="n">
+        <v>41064</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1108" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1108" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1108" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1108"/>
+  <dimension ref="A1:R1113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61955,7 +61955,7 @@
         <v>3</v>
       </c>
       <c r="O1099" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1099" t="n">
         <v>0</v>
@@ -62233,7 +62233,9 @@
       <c r="Q1104" t="n">
         <v>0</v>
       </c>
-      <c r="R1104" t="inlineStr"/>
+      <c r="R1104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1105">
       <c r="A1105" s="2" t="n">
@@ -62285,7 +62287,9 @@
       <c r="Q1105" t="n">
         <v>0</v>
       </c>
-      <c r="R1105" t="inlineStr"/>
+      <c r="R1105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1106">
       <c r="A1106" s="2" t="n">
@@ -62337,7 +62341,9 @@
       <c r="Q1106" t="n">
         <v>0</v>
       </c>
-      <c r="R1106" t="inlineStr"/>
+      <c r="R1106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1107">
       <c r="A1107" s="2" t="n">
@@ -62389,7 +62395,9 @@
       <c r="Q1107" t="n">
         <v>0</v>
       </c>
-      <c r="R1107" t="inlineStr"/>
+      <c r="R1107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1108">
       <c r="A1108" s="2" t="n">
@@ -62441,7 +62449,269 @@
       <c r="Q1108" t="n">
         <v>0</v>
       </c>
-      <c r="R1108" t="inlineStr"/>
+      <c r="R1108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>981.0499877929688</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>990.25</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>950</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>953.25</v>
+      </c>
+      <c r="F1109" t="inlineStr"/>
+      <c r="G1109" t="n">
+        <v>30444</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1109" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1109" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1109" t="inlineStr"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>955.5499877929688</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>958.2999877929688</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>905</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>928.9500122070312</v>
+      </c>
+      <c r="F1110" t="inlineStr"/>
+      <c r="G1110" t="n">
+        <v>36757</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1110" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1110" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1110" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1110" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1110" t="inlineStr"/>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>933.7999877929688</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>960</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>933.0999755859375</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>945.4000244140625</v>
+      </c>
+      <c r="F1111" t="inlineStr"/>
+      <c r="G1111" t="n">
+        <v>11791</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1111" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1111" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1111" t="inlineStr"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>959.5999755859375</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>977.9500122070312</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>944.9500122070312</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>967.4000244140625</v>
+      </c>
+      <c r="F1112" t="inlineStr"/>
+      <c r="G1112" t="n">
+        <v>20397</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1112" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1112" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1112" t="inlineStr"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>968.0999755859375</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>1010</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>960</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>992.4000244140625</v>
+      </c>
+      <c r="F1113" t="inlineStr"/>
+      <c r="G1113" t="n">
+        <v>20494</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1113" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1113" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1113" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1113"/>
+  <dimension ref="A1:R1118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62225,7 +62225,7 @@
         <v>4</v>
       </c>
       <c r="O1104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1104" t="n">
         <v>0</v>
@@ -62503,7 +62503,9 @@
       <c r="Q1109" t="n">
         <v>0</v>
       </c>
-      <c r="R1109" t="inlineStr"/>
+      <c r="R1109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1110">
       <c r="A1110" s="2" t="n">
@@ -62555,7 +62557,9 @@
       <c r="Q1110" t="n">
         <v>1</v>
       </c>
-      <c r="R1110" t="inlineStr"/>
+      <c r="R1110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1111">
       <c r="A1111" s="2" t="n">
@@ -62607,7 +62611,9 @@
       <c r="Q1111" t="n">
         <v>0</v>
       </c>
-      <c r="R1111" t="inlineStr"/>
+      <c r="R1111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1112">
       <c r="A1112" s="2" t="n">
@@ -62659,7 +62665,9 @@
       <c r="Q1112" t="n">
         <v>0</v>
       </c>
-      <c r="R1112" t="inlineStr"/>
+      <c r="R1112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1113">
       <c r="A1113" s="2" t="n">
@@ -62711,7 +62719,269 @@
       <c r="Q1113" t="n">
         <v>0</v>
       </c>
-      <c r="R1113" t="inlineStr"/>
+      <c r="R1113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>482</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>499.5</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>481.8500061035156</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>491.3500061035156</v>
+      </c>
+      <c r="F1114" t="inlineStr"/>
+      <c r="G1114" t="n">
+        <v>58988</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1114" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1114" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1114" t="inlineStr"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>495.4750061035156</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>505.9750061035156</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>485.0249938964844</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>494</v>
+      </c>
+      <c r="F1115" t="inlineStr"/>
+      <c r="G1115" t="n">
+        <v>79374</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1115" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1115" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1115" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1115" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1115" t="inlineStr"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>502.125</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>502.1499938964844</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>491.2000122070312</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>494.2000122070312</v>
+      </c>
+      <c r="F1116" t="inlineStr"/>
+      <c r="G1116" t="n">
+        <v>59880</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1116" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1116" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1116" t="inlineStr"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>497.8500061035156</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>514</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>488.0499877929688</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>506.8999938964844</v>
+      </c>
+      <c r="F1117" t="inlineStr"/>
+      <c r="G1117" t="n">
+        <v>35764</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1117" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1117" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1117" t="inlineStr"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>498</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>499.5</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>485.8999938964844</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>492.8999938964844</v>
+      </c>
+      <c r="F1118" t="inlineStr"/>
+      <c r="G1118" t="n">
+        <v>34014</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1118" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1118" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1118" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1118"/>
+  <dimension ref="A1:R1123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62773,7 +62773,9 @@
       <c r="Q1114" t="n">
         <v>0</v>
       </c>
-      <c r="R1114" t="inlineStr"/>
+      <c r="R1114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1115">
       <c r="A1115" s="2" t="n">
@@ -62825,7 +62827,9 @@
       <c r="Q1115" t="n">
         <v>2</v>
       </c>
-      <c r="R1115" t="inlineStr"/>
+      <c r="R1115" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1116">
       <c r="A1116" s="2" t="n">
@@ -62877,7 +62881,9 @@
       <c r="Q1116" t="n">
         <v>0</v>
       </c>
-      <c r="R1116" t="inlineStr"/>
+      <c r="R1116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1117">
       <c r="A1117" s="2" t="n">
@@ -62929,7 +62935,9 @@
       <c r="Q1117" t="n">
         <v>0</v>
       </c>
-      <c r="R1117" t="inlineStr"/>
+      <c r="R1117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1118">
       <c r="A1118" s="2" t="n">
@@ -62981,7 +62989,269 @@
       <c r="Q1118" t="n">
         <v>0</v>
       </c>
-      <c r="R1118" t="inlineStr"/>
+      <c r="R1118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>485</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>489</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>473</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>475.8500061035156</v>
+      </c>
+      <c r="F1119" t="inlineStr"/>
+      <c r="G1119" t="n">
+        <v>31101</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1119" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1119" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1119" t="inlineStr"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>477.7999877929688</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>479.5</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>455.0499877929688</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>458.7999877929688</v>
+      </c>
+      <c r="F1120" t="inlineStr"/>
+      <c r="G1120" t="n">
+        <v>34865</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1120" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1120" t="inlineStr"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>461.0499877929688</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>468.6000061035156</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>435</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>460.5499877929688</v>
+      </c>
+      <c r="F1121" t="inlineStr"/>
+      <c r="G1121" t="n">
+        <v>78304</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1121" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1121" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>461.5</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>474.9500122070312</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>450.7999877929688</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>465.3500061035156</v>
+      </c>
+      <c r="F1122" t="inlineStr"/>
+      <c r="G1122" t="n">
+        <v>45647</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1122" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1122" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1122" t="inlineStr"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>465.2999877929688</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>465.7999877929688</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>448.0499877929688</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>462.1499938964844</v>
+      </c>
+      <c r="F1123" t="inlineStr"/>
+      <c r="G1123" t="n">
+        <v>29421</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1123" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1123" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1123"/>
+  <dimension ref="A1:R1128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63043,7 +63043,9 @@
       <c r="Q1119" t="n">
         <v>0</v>
       </c>
-      <c r="R1119" t="inlineStr"/>
+      <c r="R1119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1120">
       <c r="A1120" s="2" t="n">
@@ -63095,7 +63097,9 @@
       <c r="Q1120" t="n">
         <v>0</v>
       </c>
-      <c r="R1120" t="inlineStr"/>
+      <c r="R1120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1121">
       <c r="A1121" s="2" t="n">
@@ -63147,7 +63151,9 @@
       <c r="Q1121" t="n">
         <v>0</v>
       </c>
-      <c r="R1121" t="inlineStr"/>
+      <c r="R1121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1122">
       <c r="A1122" s="2" t="n">
@@ -63199,7 +63205,9 @@
       <c r="Q1122" t="n">
         <v>0</v>
       </c>
-      <c r="R1122" t="inlineStr"/>
+      <c r="R1122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1123">
       <c r="A1123" s="2" t="n">
@@ -63251,7 +63259,269 @@
       <c r="Q1123" t="n">
         <v>0</v>
       </c>
-      <c r="R1123" t="inlineStr"/>
+      <c r="R1123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>462.1499938964844</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>464.3500061035156</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>440.5</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>448.75</v>
+      </c>
+      <c r="F1124" t="inlineStr"/>
+      <c r="G1124" t="n">
+        <v>48456</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1124" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1124" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1124" t="inlineStr"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>448.75</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>450.0499877929688</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>427.6499938964844</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>430.5499877929688</v>
+      </c>
+      <c r="F1125" t="inlineStr"/>
+      <c r="G1125" t="n">
+        <v>42553</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1125" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1125" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>430.6000061035156</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>449.3999938964844</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>428.3999938964844</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>443.9500122070312</v>
+      </c>
+      <c r="F1126" t="inlineStr"/>
+      <c r="G1126" t="n">
+        <v>27167</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1126" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>443.9500122070312</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>449</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>436.0499877929688</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>444.8500061035156</v>
+      </c>
+      <c r="F1127" t="inlineStr"/>
+      <c r="G1127" t="n">
+        <v>16643</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1127" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1127" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1127" t="inlineStr"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>448.9500122070312</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>453.6000061035156</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>440</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>440.9500122070312</v>
+      </c>
+      <c r="F1128" t="inlineStr"/>
+      <c r="G1128" t="n">
+        <v>17762</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1128" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1128" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1128"/>
+  <dimension ref="A1:R1138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62725,23 +62725,23 @@
     </row>
     <row r="1114">
       <c r="A1114" s="2" t="n">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="B1114" t="n">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="C1114" t="n">
-        <v>499.5</v>
+        <v>503.625</v>
       </c>
       <c r="D1114" t="n">
-        <v>481.8500061035156</v>
+        <v>475.5499877929688</v>
       </c>
       <c r="E1114" t="n">
-        <v>491.3500061035156</v>
+        <v>487.8999938964844</v>
       </c>
       <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="n">
-        <v>58988</v>
+        <v>35126</v>
       </c>
       <c r="H1114" t="n">
         <v>2025</v>
@@ -62750,7 +62750,7 @@
         <v>2</v>
       </c>
       <c r="J1114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K1114" t="n">
         <v>0</v>
@@ -62762,7 +62762,7 @@
         <v>0</v>
       </c>
       <c r="N1114" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O1114" t="n">
         <v>0</v>
@@ -62773,29 +62773,27 @@
       <c r="Q1114" t="n">
         <v>0</v>
       </c>
-      <c r="R1114" t="n">
-        <v>0</v>
-      </c>
+      <c r="R1114" t="inlineStr"/>
     </row>
     <row r="1115">
       <c r="A1115" s="2" t="n">
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="B1115" t="n">
-        <v>495.4750061035156</v>
+        <v>482</v>
       </c>
       <c r="C1115" t="n">
-        <v>505.9750061035156</v>
+        <v>499.5</v>
       </c>
       <c r="D1115" t="n">
-        <v>485.0249938964844</v>
+        <v>481.8500061035156</v>
       </c>
       <c r="E1115" t="n">
-        <v>494</v>
+        <v>491.3500061035156</v>
       </c>
       <c r="F1115" t="inlineStr"/>
       <c r="G1115" t="n">
-        <v>79374</v>
+        <v>58988</v>
       </c>
       <c r="H1115" t="n">
         <v>2025</v>
@@ -62804,7 +62802,7 @@
         <v>2</v>
       </c>
       <c r="J1115" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1115" t="n">
         <v>0</v>
@@ -62828,28 +62826,28 @@
         <v>2</v>
       </c>
       <c r="R1115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" s="2" t="n">
-        <v>45693</v>
+        <v>45692</v>
       </c>
       <c r="B1116" t="n">
-        <v>502.125</v>
+        <v>495.4750061035156</v>
       </c>
       <c r="C1116" t="n">
-        <v>502.1499938964844</v>
+        <v>505.9750061035156</v>
       </c>
       <c r="D1116" t="n">
-        <v>491.2000122070312</v>
+        <v>485.0249938964844</v>
       </c>
       <c r="E1116" t="n">
-        <v>494.2000122070312</v>
+        <v>494</v>
       </c>
       <c r="F1116" t="inlineStr"/>
       <c r="G1116" t="n">
-        <v>59880</v>
+        <v>79374</v>
       </c>
       <c r="H1116" t="n">
         <v>2025</v>
@@ -62858,7 +62856,7 @@
         <v>2</v>
       </c>
       <c r="J1116" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1116" t="n">
         <v>0</v>
@@ -62882,28 +62880,28 @@
         <v>0</v>
       </c>
       <c r="R1116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" s="2" t="n">
-        <v>45694</v>
+        <v>45693</v>
       </c>
       <c r="B1117" t="n">
-        <v>497.8500061035156</v>
+        <v>502.125</v>
       </c>
       <c r="C1117" t="n">
-        <v>514</v>
+        <v>502.1499938964844</v>
       </c>
       <c r="D1117" t="n">
-        <v>488.0499877929688</v>
+        <v>491.2000122070312</v>
       </c>
       <c r="E1117" t="n">
-        <v>506.8999938964844</v>
+        <v>494.2000122070312</v>
       </c>
       <c r="F1117" t="inlineStr"/>
       <c r="G1117" t="n">
-        <v>35764</v>
+        <v>59880</v>
       </c>
       <c r="H1117" t="n">
         <v>2025</v>
@@ -62912,7 +62910,7 @@
         <v>2</v>
       </c>
       <c r="J1117" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K1117" t="n">
         <v>0</v>
@@ -62941,23 +62939,23 @@
     </row>
     <row r="1118">
       <c r="A1118" s="2" t="n">
-        <v>45695</v>
+        <v>45694</v>
       </c>
       <c r="B1118" t="n">
-        <v>498</v>
+        <v>497.8500061035156</v>
       </c>
       <c r="C1118" t="n">
-        <v>499.5</v>
+        <v>514</v>
       </c>
       <c r="D1118" t="n">
-        <v>485.8999938964844</v>
+        <v>488.0499877929688</v>
       </c>
       <c r="E1118" t="n">
-        <v>492.8999938964844</v>
+        <v>506.8999938964844</v>
       </c>
       <c r="F1118" t="inlineStr"/>
       <c r="G1118" t="n">
-        <v>34014</v>
+        <v>35764</v>
       </c>
       <c r="H1118" t="n">
         <v>2025</v>
@@ -62966,7 +62964,7 @@
         <v>2</v>
       </c>
       <c r="J1118" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1118" t="n">
         <v>0</v>
@@ -62995,23 +62993,23 @@
     </row>
     <row r="1119">
       <c r="A1119" s="2" t="n">
-        <v>45698</v>
+        <v>45695</v>
       </c>
       <c r="B1119" t="n">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="C1119" t="n">
-        <v>489</v>
+        <v>499.5</v>
       </c>
       <c r="D1119" t="n">
-        <v>473</v>
+        <v>485.8999938964844</v>
       </c>
       <c r="E1119" t="n">
-        <v>475.8500061035156</v>
+        <v>492.8999938964844</v>
       </c>
       <c r="F1119" t="inlineStr"/>
       <c r="G1119" t="n">
-        <v>31101</v>
+        <v>34014</v>
       </c>
       <c r="H1119" t="n">
         <v>2025</v>
@@ -63020,7 +63018,7 @@
         <v>2</v>
       </c>
       <c r="J1119" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K1119" t="n">
         <v>0</v>
@@ -63032,7 +63030,7 @@
         <v>0</v>
       </c>
       <c r="N1119" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O1119" t="n">
         <v>0</v>
@@ -63049,23 +63047,23 @@
     </row>
     <row r="1120">
       <c r="A1120" s="2" t="n">
-        <v>45699</v>
+        <v>45698</v>
       </c>
       <c r="B1120" t="n">
-        <v>477.7999877929688</v>
+        <v>485</v>
       </c>
       <c r="C1120" t="n">
-        <v>479.5</v>
+        <v>489</v>
       </c>
       <c r="D1120" t="n">
-        <v>455.0499877929688</v>
+        <v>473</v>
       </c>
       <c r="E1120" t="n">
-        <v>458.7999877929688</v>
+        <v>475.8500061035156</v>
       </c>
       <c r="F1120" t="inlineStr"/>
       <c r="G1120" t="n">
-        <v>34865</v>
+        <v>31101</v>
       </c>
       <c r="H1120" t="n">
         <v>2025</v>
@@ -63074,7 +63072,7 @@
         <v>2</v>
       </c>
       <c r="J1120" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1120" t="n">
         <v>0</v>
@@ -63103,23 +63101,23 @@
     </row>
     <row r="1121">
       <c r="A1121" s="2" t="n">
-        <v>45700</v>
+        <v>45699</v>
       </c>
       <c r="B1121" t="n">
-        <v>461.0499877929688</v>
+        <v>477.7999877929688</v>
       </c>
       <c r="C1121" t="n">
-        <v>468.6000061035156</v>
+        <v>479.5</v>
       </c>
       <c r="D1121" t="n">
-        <v>435</v>
+        <v>455.0499877929688</v>
       </c>
       <c r="E1121" t="n">
-        <v>460.5499877929688</v>
+        <v>458.7999877929688</v>
       </c>
       <c r="F1121" t="inlineStr"/>
       <c r="G1121" t="n">
-        <v>78304</v>
+        <v>34865</v>
       </c>
       <c r="H1121" t="n">
         <v>2025</v>
@@ -63128,7 +63126,7 @@
         <v>2</v>
       </c>
       <c r="J1121" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1121" t="n">
         <v>0</v>
@@ -63157,23 +63155,23 @@
     </row>
     <row r="1122">
       <c r="A1122" s="2" t="n">
-        <v>45701</v>
+        <v>45700</v>
       </c>
       <c r="B1122" t="n">
-        <v>461.5</v>
+        <v>461.0499877929688</v>
       </c>
       <c r="C1122" t="n">
-        <v>474.9500122070312</v>
+        <v>468.6000061035156</v>
       </c>
       <c r="D1122" t="n">
-        <v>450.7999877929688</v>
+        <v>435</v>
       </c>
       <c r="E1122" t="n">
-        <v>465.3500061035156</v>
+        <v>460.5499877929688</v>
       </c>
       <c r="F1122" t="inlineStr"/>
       <c r="G1122" t="n">
-        <v>45647</v>
+        <v>78304</v>
       </c>
       <c r="H1122" t="n">
         <v>2025</v>
@@ -63182,7 +63180,7 @@
         <v>2</v>
       </c>
       <c r="J1122" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1122" t="n">
         <v>0</v>
@@ -63211,23 +63209,23 @@
     </row>
     <row r="1123">
       <c r="A1123" s="2" t="n">
-        <v>45702</v>
+        <v>45701</v>
       </c>
       <c r="B1123" t="n">
-        <v>465.2999877929688</v>
+        <v>461.5</v>
       </c>
       <c r="C1123" t="n">
-        <v>465.7999877929688</v>
+        <v>474.9500122070312</v>
       </c>
       <c r="D1123" t="n">
-        <v>448.0499877929688</v>
+        <v>450.7999877929688</v>
       </c>
       <c r="E1123" t="n">
-        <v>462.1499938964844</v>
+        <v>465.3500061035156</v>
       </c>
       <c r="F1123" t="inlineStr"/>
       <c r="G1123" t="n">
-        <v>29421</v>
+        <v>45647</v>
       </c>
       <c r="H1123" t="n">
         <v>2025</v>
@@ -63236,7 +63234,7 @@
         <v>2</v>
       </c>
       <c r="J1123" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1123" t="n">
         <v>0</v>
@@ -63265,23 +63263,23 @@
     </row>
     <row r="1124">
       <c r="A1124" s="2" t="n">
-        <v>45705</v>
+        <v>45702</v>
       </c>
       <c r="B1124" t="n">
+        <v>465.2999877929688</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>465.7999877929688</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>448.0499877929688</v>
+      </c>
+      <c r="E1124" t="n">
         <v>462.1499938964844</v>
-      </c>
-      <c r="C1124" t="n">
-        <v>464.3500061035156</v>
-      </c>
-      <c r="D1124" t="n">
-        <v>440.5</v>
-      </c>
-      <c r="E1124" t="n">
-        <v>448.75</v>
       </c>
       <c r="F1124" t="inlineStr"/>
       <c r="G1124" t="n">
-        <v>48456</v>
+        <v>29421</v>
       </c>
       <c r="H1124" t="n">
         <v>2025</v>
@@ -63290,7 +63288,7 @@
         <v>2</v>
       </c>
       <c r="J1124" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K1124" t="n">
         <v>0</v>
@@ -63302,7 +63300,7 @@
         <v>0</v>
       </c>
       <c r="N1124" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O1124" t="n">
         <v>0</v>
@@ -63313,27 +63311,29 @@
       <c r="Q1124" t="n">
         <v>0</v>
       </c>
-      <c r="R1124" t="inlineStr"/>
+      <c r="R1124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1125">
       <c r="A1125" s="2" t="n">
-        <v>45706</v>
+        <v>45705</v>
       </c>
       <c r="B1125" t="n">
+        <v>462.1499938964844</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>464.3500061035156</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>440.5</v>
+      </c>
+      <c r="E1125" t="n">
         <v>448.75</v>
-      </c>
-      <c r="C1125" t="n">
-        <v>450.0499877929688</v>
-      </c>
-      <c r="D1125" t="n">
-        <v>427.6499938964844</v>
-      </c>
-      <c r="E1125" t="n">
-        <v>430.5499877929688</v>
       </c>
       <c r="F1125" t="inlineStr"/>
       <c r="G1125" t="n">
-        <v>42553</v>
+        <v>48456</v>
       </c>
       <c r="H1125" t="n">
         <v>2025</v>
@@ -63342,7 +63342,7 @@
         <v>2</v>
       </c>
       <c r="J1125" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K1125" t="n">
         <v>0</v>
@@ -63365,27 +63365,29 @@
       <c r="Q1125" t="n">
         <v>0</v>
       </c>
-      <c r="R1125" t="inlineStr"/>
+      <c r="R1125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1126">
       <c r="A1126" s="2" t="n">
-        <v>45707</v>
+        <v>45706</v>
       </c>
       <c r="B1126" t="n">
-        <v>430.6000061035156</v>
+        <v>448.75</v>
       </c>
       <c r="C1126" t="n">
-        <v>449.3999938964844</v>
+        <v>450.0499877929688</v>
       </c>
       <c r="D1126" t="n">
-        <v>428.3999938964844</v>
+        <v>427.6499938964844</v>
       </c>
       <c r="E1126" t="n">
-        <v>443.9500122070312</v>
+        <v>430.5499877929688</v>
       </c>
       <c r="F1126" t="inlineStr"/>
       <c r="G1126" t="n">
-        <v>27167</v>
+        <v>42553</v>
       </c>
       <c r="H1126" t="n">
         <v>2025</v>
@@ -63394,7 +63396,7 @@
         <v>2</v>
       </c>
       <c r="J1126" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1126" t="n">
         <v>0</v>
@@ -63417,27 +63419,29 @@
       <c r="Q1126" t="n">
         <v>0</v>
       </c>
-      <c r="R1126" t="inlineStr"/>
+      <c r="R1126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1127">
       <c r="A1127" s="2" t="n">
-        <v>45708</v>
+        <v>45707</v>
       </c>
       <c r="B1127" t="n">
+        <v>430.6000061035156</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>449.3999938964844</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>428.3999938964844</v>
+      </c>
+      <c r="E1127" t="n">
         <v>443.9500122070312</v>
-      </c>
-      <c r="C1127" t="n">
-        <v>449</v>
-      </c>
-      <c r="D1127" t="n">
-        <v>436.0499877929688</v>
-      </c>
-      <c r="E1127" t="n">
-        <v>444.8500061035156</v>
       </c>
       <c r="F1127" t="inlineStr"/>
       <c r="G1127" t="n">
-        <v>16643</v>
+        <v>27167</v>
       </c>
       <c r="H1127" t="n">
         <v>2025</v>
@@ -63446,7 +63450,7 @@
         <v>2</v>
       </c>
       <c r="J1127" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1127" t="n">
         <v>0</v>
@@ -63469,27 +63473,29 @@
       <c r="Q1127" t="n">
         <v>0</v>
       </c>
-      <c r="R1127" t="inlineStr"/>
+      <c r="R1127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1128">
       <c r="A1128" s="2" t="n">
-        <v>45709</v>
+        <v>45708</v>
       </c>
       <c r="B1128" t="n">
-        <v>448.9500122070312</v>
+        <v>443.9500122070312</v>
       </c>
       <c r="C1128" t="n">
-        <v>453.6000061035156</v>
+        <v>449</v>
       </c>
       <c r="D1128" t="n">
-        <v>440</v>
+        <v>436.0499877929688</v>
       </c>
       <c r="E1128" t="n">
-        <v>440.9500122070312</v>
+        <v>444.8500061035156</v>
       </c>
       <c r="F1128" t="inlineStr"/>
       <c r="G1128" t="n">
-        <v>17762</v>
+        <v>16643</v>
       </c>
       <c r="H1128" t="n">
         <v>2025</v>
@@ -63498,7 +63504,7 @@
         <v>2</v>
       </c>
       <c r="J1128" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1128" t="n">
         <v>0</v>
@@ -63521,7 +63527,531 @@
       <c r="Q1128" t="n">
         <v>0</v>
       </c>
-      <c r="R1128" t="inlineStr"/>
+      <c r="R1128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>448.9500122070312</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>453.6000061035156</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>440</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>440.9500122070312</v>
+      </c>
+      <c r="F1129" t="inlineStr"/>
+      <c r="G1129" t="n">
+        <v>17762</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1129" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1129" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>445.3999938964844</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>446.1499938964844</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>429</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>443.1499938964844</v>
+      </c>
+      <c r="F1130" t="inlineStr"/>
+      <c r="G1130" t="n">
+        <v>34253</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1130" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>438</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>442.1499938964844</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>433.9500122070312</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>439.2000122070312</v>
+      </c>
+      <c r="F1131" t="inlineStr"/>
+      <c r="G1131" t="n">
+        <v>21276</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1131" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1131" t="inlineStr"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>455</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>455</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>405</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>414.2999877929688</v>
+      </c>
+      <c r="F1132" t="inlineStr"/>
+      <c r="G1132" t="n">
+        <v>56777</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1132" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1132" t="inlineStr"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>414.2999877929688</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>414.2999877929688</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>400</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>402.2000122070312</v>
+      </c>
+      <c r="F1133" t="inlineStr"/>
+      <c r="G1133" t="n">
+        <v>42345</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1133" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1133" t="inlineStr"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>400.0499877929688</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>407.25</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>378.5</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>392.7000122070312</v>
+      </c>
+      <c r="F1134" t="inlineStr"/>
+      <c r="G1134" t="n">
+        <v>70038</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1134" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1134" t="inlineStr"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>390.1000061035156</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>398.7999877929688</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>381</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>382.2999877929688</v>
+      </c>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="n">
+        <v>45808</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1135" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1135" t="inlineStr"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>381</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>402.4500122070312</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>375</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>380.7999877929688</v>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="n">
+        <v>90725</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1136" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1136" t="inlineStr"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>380.8500061035156</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>397.9500122070312</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>380.8500061035156</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>393.7000122070312</v>
+      </c>
+      <c r="F1137" t="inlineStr"/>
+      <c r="G1137" t="n">
+        <v>57664</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1137" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1137" t="inlineStr"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>392.9500122070312</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>407.0499877929688</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>387.7999877929688</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>402.0499877929688</v>
+      </c>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="n">
+        <v>66707</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1138" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1138" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1138"/>
+  <dimension ref="A1:R1147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62773,7 +62773,9 @@
       <c r="Q1114" t="n">
         <v>0</v>
       </c>
-      <c r="R1114" t="inlineStr"/>
+      <c r="R1114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1115">
       <c r="A1115" s="2" t="n">
@@ -62826,7 +62828,7 @@
         <v>2</v>
       </c>
       <c r="R1115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1116">
@@ -62880,7 +62882,7 @@
         <v>0</v>
       </c>
       <c r="R1116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117">
@@ -63635,7 +63637,9 @@
       <c r="Q1130" t="n">
         <v>0</v>
       </c>
-      <c r="R1130" t="inlineStr"/>
+      <c r="R1130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1131">
       <c r="A1131" s="2" t="n">
@@ -63687,7 +63691,9 @@
       <c r="Q1131" t="n">
         <v>0</v>
       </c>
-      <c r="R1131" t="inlineStr"/>
+      <c r="R1131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1132">
       <c r="A1132" s="2" t="n">
@@ -63739,7 +63745,9 @@
       <c r="Q1132" t="n">
         <v>0</v>
       </c>
-      <c r="R1132" t="inlineStr"/>
+      <c r="R1132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1133">
       <c r="A1133" s="2" t="n">
@@ -63791,7 +63799,9 @@
       <c r="Q1133" t="n">
         <v>0</v>
       </c>
-      <c r="R1133" t="inlineStr"/>
+      <c r="R1133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1134">
       <c r="A1134" s="2" t="n">
@@ -63843,7 +63853,9 @@
       <c r="Q1134" t="n">
         <v>0</v>
       </c>
-      <c r="R1134" t="inlineStr"/>
+      <c r="R1134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1135">
       <c r="A1135" s="2" t="n">
@@ -63895,7 +63907,9 @@
       <c r="Q1135" t="n">
         <v>0</v>
       </c>
-      <c r="R1135" t="inlineStr"/>
+      <c r="R1135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1136">
       <c r="A1136" s="2" t="n">
@@ -63947,7 +63961,9 @@
       <c r="Q1136" t="n">
         <v>0</v>
       </c>
-      <c r="R1136" t="inlineStr"/>
+      <c r="R1136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1137">
       <c r="A1137" s="2" t="n">
@@ -63999,7 +64015,9 @@
       <c r="Q1137" t="n">
         <v>0</v>
       </c>
-      <c r="R1137" t="inlineStr"/>
+      <c r="R1137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1138">
       <c r="A1138" s="2" t="n">
@@ -64051,7 +64069,477 @@
       <c r="Q1138" t="n">
         <v>0</v>
       </c>
-      <c r="R1138" t="inlineStr"/>
+      <c r="R1138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>402.0499877929688</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>418</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>382</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>384.6000061035156</v>
+      </c>
+      <c r="F1139" t="inlineStr"/>
+      <c r="G1139" t="n">
+        <v>47342</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1139" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1139" t="inlineStr"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>378.8500061035156</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>382.6499938964844</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>366</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>371.4500122070312</v>
+      </c>
+      <c r="F1140" t="inlineStr"/>
+      <c r="G1140" t="n">
+        <v>56727</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1140" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1140" t="inlineStr"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>370.5</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>371.4500122070312</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>354.0499877929688</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>358.2999877929688</v>
+      </c>
+      <c r="F1141" t="inlineStr"/>
+      <c r="G1141" t="n">
+        <v>73532</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1141" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1141" t="inlineStr"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>357.5</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>361.0499877929688</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>340.5499877929688</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>342.25</v>
+      </c>
+      <c r="F1142" t="inlineStr"/>
+      <c r="G1142" t="n">
+        <v>99596</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>342.25</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>346.4500122070312</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>321.3999938964844</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>325.3500061035156</v>
+      </c>
+      <c r="F1143" t="inlineStr"/>
+      <c r="G1143" t="n">
+        <v>128057</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1143" t="inlineStr"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>325.3500061035156</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>325.3500061035156</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>325.3500061035156</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>325.3500061035156</v>
+      </c>
+      <c r="F1144" t="inlineStr"/>
+      <c r="G1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>344</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>410.5499877929688</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>340.8500061035156</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>410.5499877929688</v>
+      </c>
+      <c r="F1145" t="inlineStr"/>
+      <c r="G1145" t="n">
+        <v>341153</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>440.0499877929688</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>477.7000122070312</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>426.25</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>462.75</v>
+      </c>
+      <c r="F1146" t="inlineStr"/>
+      <c r="G1146" t="n">
+        <v>1485491</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>458.2000122070312</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>461.7000122070312</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>442.3999938964844</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>453</v>
+      </c>
+      <c r="F1147" t="inlineStr"/>
+      <c r="G1147" t="n">
+        <v>314597</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1147" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1147"/>
+  <dimension ref="A1:R1156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64123,7 +64123,9 @@
       <c r="Q1139" t="n">
         <v>0</v>
       </c>
-      <c r="R1139" t="inlineStr"/>
+      <c r="R1139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1140">
       <c r="A1140" s="2" t="n">
@@ -64175,7 +64177,9 @@
       <c r="Q1140" t="n">
         <v>0</v>
       </c>
-      <c r="R1140" t="inlineStr"/>
+      <c r="R1140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1141">
       <c r="A1141" s="2" t="n">
@@ -64227,7 +64231,9 @@
       <c r="Q1141" t="n">
         <v>0</v>
       </c>
-      <c r="R1141" t="inlineStr"/>
+      <c r="R1141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1142">
       <c r="A1142" s="2" t="n">
@@ -64279,7 +64285,9 @@
       <c r="Q1142" t="n">
         <v>0</v>
       </c>
-      <c r="R1142" t="inlineStr"/>
+      <c r="R1142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
@@ -64323,7 +64331,7 @@
         <v>12</v>
       </c>
       <c r="O1143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1143" t="n">
         <v>0</v>
@@ -64331,7 +64339,9 @@
       <c r="Q1143" t="n">
         <v>0</v>
       </c>
-      <c r="R1143" t="inlineStr"/>
+      <c r="R1143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1144">
       <c r="A1144" s="2" t="n">
@@ -64383,7 +64393,9 @@
       <c r="Q1144" t="n">
         <v>0</v>
       </c>
-      <c r="R1144" t="inlineStr"/>
+      <c r="R1144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1145">
       <c r="A1145" s="2" t="n">
@@ -64435,7 +64447,9 @@
       <c r="Q1145" t="n">
         <v>0</v>
       </c>
-      <c r="R1145" t="inlineStr"/>
+      <c r="R1145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1146">
       <c r="A1146" s="2" t="n">
@@ -64487,7 +64501,9 @@
       <c r="Q1146" t="n">
         <v>0</v>
       </c>
-      <c r="R1146" t="inlineStr"/>
+      <c r="R1146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
@@ -64539,7 +64555,477 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>453.8871190028138</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>489.2786121180735</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>448.4725669572416</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>475.25</v>
+      </c>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="n">
+        <v>267455</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>480.7999877929688</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>495</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>446.5</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>459.3999938964844</v>
+      </c>
+      <c r="F1149" t="inlineStr"/>
+      <c r="G1149" t="n">
+        <v>163733</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>451.2000122070312</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>452.8999938964844</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>440</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>444.3500061035156</v>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="n">
+        <v>63112</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>440</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>444.2000122070312</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>425</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>430.6499938964844</v>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="n">
+        <v>54126</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>429.0499877929688</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>468.5</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>429</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>436.6499938964844</v>
+      </c>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="n">
+        <v>92299</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>430</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>450</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>422</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>438.1499938964844</v>
+      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="n">
+        <v>47596</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>438.1499938964844</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>468</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>437.0499877929688</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>463.8999938964844</v>
+      </c>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="n">
+        <v>66275</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>460</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>467.4500122070312</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>452.5499877929688</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>464.9500122070312</v>
+      </c>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="n">
+        <v>56317</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>455</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>460</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>440.5499877929688</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>445.5499877929688</v>
+      </c>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="n">
+        <v>73489</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1156"/>
+  <dimension ref="A1:R1160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64609,7 +64609,9 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
@@ -64653,7 +64655,7 @@
         <v>13</v>
       </c>
       <c r="O1149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1149" t="n">
         <v>0</v>
@@ -64661,7 +64663,9 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
@@ -64713,7 +64717,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64765,7 +64771,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64817,7 +64825,9 @@
       <c r="Q1152" t="n">
         <v>0</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -64869,7 +64879,9 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -64921,7 +64933,9 @@
       <c r="Q1154" t="n">
         <v>1</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -64973,7 +64987,9 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65025,7 +65041,217 @@
       <c r="Q1156" t="n">
         <v>0</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>401</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>428.3500061035156</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>401</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>422.1000061035156</v>
+      </c>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="n">
+        <v>74378</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>449</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>449</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>427.0499877929688</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>435.2999877929688</v>
+      </c>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="n">
+        <v>40381</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>435.2999877929688</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>437.6499938964844</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>419</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>429.4500122070312</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>31327</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>459</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>459.2999877929688</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>430</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>433.8999938964844</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>39571</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1160"/>
+  <dimension ref="A1:R1163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65095,7 +65095,9 @@
       <c r="Q1157" t="n">
         <v>0</v>
       </c>
-      <c r="R1157" t="inlineStr"/>
+      <c r="R1157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
@@ -65147,7 +65149,9 @@
       <c r="Q1158" t="n">
         <v>0</v>
       </c>
-      <c r="R1158" t="inlineStr"/>
+      <c r="R1158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
@@ -65199,7 +65203,9 @@
       <c r="Q1159" t="n">
         <v>0</v>
       </c>
-      <c r="R1159" t="inlineStr"/>
+      <c r="R1159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
@@ -65251,7 +65257,165 @@
       <c r="Q1160" t="n">
         <v>2</v>
       </c>
-      <c r="R1160" t="inlineStr"/>
+      <c r="R1160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>436.2000122070312</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>445.9500122070312</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>434.9500122070312</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>442.1499938964844</v>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="n">
+        <v>34492</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>442.1499938964844</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>452</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>440.3999938964844</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>450.2000122070312</v>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="n">
+        <v>25902</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>450.2000122070312</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>451.9500122070312</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>443.0499877929688</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>446.2999877929688</v>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="n">
+        <v>18823</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1163"/>
+  <dimension ref="A1:R1172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8587,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="Q145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R145" t="n">
         <v>0</v>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="Q146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R146" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="Q147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R147" t="n">
         <v>0</v>
@@ -65087,7 +65087,7 @@
         <v>15</v>
       </c>
       <c r="O1157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1157" t="n">
         <v>0</v>
@@ -65311,7 +65311,9 @@
       <c r="Q1161" t="n">
         <v>0</v>
       </c>
-      <c r="R1161" t="inlineStr"/>
+      <c r="R1161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
@@ -65363,7 +65365,9 @@
       <c r="Q1162" t="n">
         <v>0</v>
       </c>
-      <c r="R1162" t="inlineStr"/>
+      <c r="R1162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" s="2" t="n">
@@ -65415,7 +65419,477 @@
       <c r="Q1163" t="n">
         <v>0</v>
       </c>
-      <c r="R1163" t="inlineStr"/>
+      <c r="R1163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>452</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>458</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>440.3500061035156</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>443.75</v>
+      </c>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="n">
+        <v>40648</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>446</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>446</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>435.8500061035156</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>438.8999938964844</v>
+      </c>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="n">
+        <v>30597</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>440</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>457.8999938964844</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>438.8999938964844</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>450.3500061035156</v>
+      </c>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="n">
+        <v>61848</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>450.3500061035156</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>481.4500122070312</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>448.25</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>469.8500061035156</v>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="n">
+        <v>162756</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>470</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>489.4500122070312</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>432.5</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>441.6000061035156</v>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="n">
+        <v>144662</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>441.5499877929688</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>441.5499877929688</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>430.1000061035156</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>431.9500122070312</v>
+      </c>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="n">
+        <v>45918</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>430</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>441.9500122070312</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>430</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>434.3999938964844</v>
+      </c>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="n">
+        <v>30577</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>436.5</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>441.4500122070312</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>426.75</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>433.9500122070312</v>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="n">
+        <v>37262</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>433.9500122070312</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>466</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>428</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>461.1499938964844</v>
+      </c>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="n">
+        <v>100745</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KSOLVES.NS.xlsx
+++ b/stock_historical_data/1d/KSOLVES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1172"/>
+  <dimension ref="A1:R1182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="Q155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R155" t="n">
         <v>0</v>
@@ -65473,7 +65473,9 @@
       <c r="Q1164" t="n">
         <v>0</v>
       </c>
-      <c r="R1164" t="inlineStr"/>
+      <c r="R1164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
@@ -65525,7 +65527,9 @@
       <c r="Q1165" t="n">
         <v>0</v>
       </c>
-      <c r="R1165" t="inlineStr"/>
+      <c r="R1165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
@@ -65577,7 +65581,9 @@
       <c r="Q1166" t="n">
         <v>0</v>
       </c>
-      <c r="R1166" t="inlineStr"/>
+      <c r="R1166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
@@ -65629,7 +65635,9 @@
       <c r="Q1167" t="n">
         <v>0</v>
       </c>
-      <c r="R1167" t="inlineStr"/>
+      <c r="R1167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
@@ -65673,7 +65681,7 @@
         <v>17</v>
       </c>
       <c r="O1168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1168" t="n">
         <v>0</v>
@@ -65681,7 +65689,9 @@
       <c r="Q1168" t="n">
         <v>0</v>
       </c>
-      <c r="R1168" t="inlineStr"/>
+      <c r="R1168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
@@ -65733,7 +65743,9 @@
       <c r="Q1169" t="n">
         <v>0</v>
       </c>
-      <c r="R1169" t="inlineStr"/>
+      <c r="R1169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
@@ -65785,7 +65797,9 @@
       <c r="Q1170" t="n">
         <v>0</v>
       </c>
-      <c r="R1170" t="inlineStr"/>
+      <c r="R1170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
@@ -65837,7 +65851,9 @@
       <c r="Q1171" t="n">
         <v>0</v>
       </c>
-      <c r="R1171" t="inlineStr"/>
+      <c r="R1171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
@@ -65889,7 +65905,529 @@
       <c r="Q1172" t="n">
         <v>0</v>
       </c>
-      <c r="R1172" t="inlineStr"/>
+      <c r="R1172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>415.0499877929688</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>415.0499877929688</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>415.0499877929688</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>415.0499877929688</v>
+      </c>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="n">
+        <v>35542</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>373.5499877929688</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>373.5499877929688</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>373.5499877929688</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>373.5499877929688</v>
+      </c>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="n">
+        <v>32420</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>336.2000122070312</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>360</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>336.2000122070312</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>336.5499877929688</v>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="n">
+        <v>547793</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>338.7999877929688</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>345</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>325</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>326.6000061035156</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>189037</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>310.5</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>338.9500122070312</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>310.5</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>333.6499938964844</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>97659</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>343</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>350</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>334</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>337.4500122070312</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>140409</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>341</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>342.4500122070312</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>336.0499877929688</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>66525</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>344</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>345.5</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>333</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>337.4500122070312</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>43344</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>340.5</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>341</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>333.5499877929688</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>335.7000122070312</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>44555</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>335.25</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>335.2999877929688</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>327.5</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>328.75</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>96299</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
